--- a/INTLINE/data/142/STANOR/08792 External trade in goods main figures.xlsx
+++ b/INTLINE/data/142/STANOR/08792 External trade in goods main figures.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="561" uniqueCount="561">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="564" uniqueCount="564">
   <x:si>
     <x:t>08792: External trade in goods, main figures (NOK million), by trade flow, contents and month</x:t>
   </x:si>
@@ -1537,6 +1537,15 @@
     <x:t>2022M02</x:t>
   </x:si>
   <x:si>
+    <x:t>2022M03</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2022M04</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2022M05</x:t>
+  </x:si>
+  <x:si>
     <x:t>Total imports</x:t>
   </x:si>
   <x:si>
@@ -1636,7 +1645,7 @@
     <x:t>Value:</x:t>
   </x:si>
   <x:si>
-    <x:t>20220315 08:00</x:t>
+    <x:t>20220615 08:00</x:t>
   </x:si>
   <x:si>
     <x:t>Source:</x:t>
@@ -2093,21 +2102,21 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:SN76"/>
+  <x:dimension ref="A1:SQ76"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
-    <x:col min="1" max="508" width="9.140625" style="0" customWidth="1"/>
+    <x:col min="1" max="511" width="9.140625" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
-    <x:row r="1" spans="1:508">
+    <x:row r="1" spans="1:511">
       <x:c r="A1" s="1" t="s">
         <x:v>0</x:v>
       </x:c>
     </x:row>
-    <x:row r="3" spans="1:508">
+    <x:row r="3" spans="1:511">
       <x:c r="C3" s="2" t="s">
         <x:v>1</x:v>
       </x:c>
@@ -3626,13 +3635,22 @@
       <x:c r="SN3" s="2" t="s">
         <x:v>506</x:v>
       </x:c>
+      <x:c r="SO3" s="2" t="s">
+        <x:v>507</x:v>
+      </x:c>
+      <x:c r="SP3" s="2" t="s">
+        <x:v>508</x:v>
+      </x:c>
+      <x:c r="SQ3" s="2" t="s">
+        <x:v>509</x:v>
+      </x:c>
     </x:row>
-    <x:row r="4" spans="1:508">
+    <x:row r="4" spans="1:511">
       <x:c r="A4" s="2" t="s">
-        <x:v>507</x:v>
+        <x:v>510</x:v>
       </x:c>
       <x:c r="B4" s="2" t="s">
-        <x:v>508</x:v>
+        <x:v>511</x:v>
       </x:c>
       <x:c r="C4" s="3" t="n">
         <x:v>6937</x:v>
@@ -5075,90 +5093,99 @@
         <x:v>61383</x:v>
       </x:c>
       <x:c r="RO4" s="3" t="n">
-        <x:v>61317</x:v>
+        <x:v>62512</x:v>
       </x:c>
       <x:c r="RP4" s="3" t="n">
-        <x:v>59736</x:v>
+        <x:v>59753</x:v>
       </x:c>
       <x:c r="RQ4" s="3" t="n">
-        <x:v>69081</x:v>
+        <x:v>69071</x:v>
       </x:c>
       <x:c r="RR4" s="3" t="n">
-        <x:v>55399</x:v>
+        <x:v>55394</x:v>
       </x:c>
       <x:c r="RS4" s="3" t="n">
-        <x:v>57727</x:v>
+        <x:v>57729</x:v>
       </x:c>
       <x:c r="RT4" s="3" t="n">
-        <x:v>66556</x:v>
+        <x:v>66323</x:v>
       </x:c>
       <x:c r="RU4" s="3" t="n">
-        <x:v>60414</x:v>
+        <x:v>61675</x:v>
       </x:c>
       <x:c r="RV4" s="3" t="n">
-        <x:v>62387</x:v>
+        <x:v>63570</x:v>
       </x:c>
       <x:c r="RW4" s="3" t="n">
-        <x:v>68878</x:v>
+        <x:v>68859</x:v>
       </x:c>
       <x:c r="RX4" s="3" t="n">
-        <x:v>67709</x:v>
+        <x:v>67952</x:v>
       </x:c>
       <x:c r="RY4" s="3" t="n">
-        <x:v>71175</x:v>
+        <x:v>71351</x:v>
       </x:c>
       <x:c r="RZ4" s="3" t="n">
-        <x:v>64408</x:v>
+        <x:v>64666</x:v>
       </x:c>
       <x:c r="SA4" s="3" t="n">
-        <x:v>55636</x:v>
+        <x:v>55634</x:v>
       </x:c>
       <x:c r="SB4" s="3" t="n">
-        <x:v>59480</x:v>
+        <x:v>59476</x:v>
       </x:c>
       <x:c r="SC4" s="3" t="n">
-        <x:v>73642</x:v>
+        <x:v>73637</x:v>
       </x:c>
       <x:c r="SD4" s="3" t="n">
-        <x:v>65910</x:v>
+        <x:v>66834</x:v>
       </x:c>
       <x:c r="SE4" s="3" t="n">
-        <x:v>72517</x:v>
+        <x:v>72512</x:v>
       </x:c>
       <x:c r="SF4" s="3" t="n">
-        <x:v>74231</x:v>
+        <x:v>74221</x:v>
       </x:c>
       <x:c r="SG4" s="3" t="n">
-        <x:v>64918</x:v>
+        <x:v>64911</x:v>
       </x:c>
       <x:c r="SH4" s="3" t="n">
-        <x:v>74206</x:v>
+        <x:v>74168</x:v>
       </x:c>
       <x:c r="SI4" s="3" t="n">
-        <x:v>77019</x:v>
+        <x:v>76864</x:v>
       </x:c>
       <x:c r="SJ4" s="3" t="n">
-        <x:v>72984</x:v>
+        <x:v>72873</x:v>
       </x:c>
       <x:c r="SK4" s="3" t="n">
-        <x:v>80483</x:v>
+        <x:v>81644</x:v>
       </x:c>
       <x:c r="SL4" s="3" t="n">
-        <x:v>75814</x:v>
+        <x:v>79297</x:v>
       </x:c>
       <x:c r="SM4" s="3" t="n">
-        <x:v>68594</x:v>
+        <x:v>68876</x:v>
       </x:c>
       <x:c r="SN4" s="3" t="n">
-        <x:v>70031</x:v>
+        <x:v>76072</x:v>
+      </x:c>
+      <x:c r="SO4" s="3" t="n">
+        <x:v>89969</x:v>
+      </x:c>
+      <x:c r="SP4" s="3" t="n">
+        <x:v>72692</x:v>
+      </x:c>
+      <x:c r="SQ4" s="3" t="n">
+        <x:v>89219</x:v>
       </x:c>
     </x:row>
-    <x:row r="5" spans="1:508">
+    <x:row r="5" spans="1:511">
       <x:c r="A5" s="2" t="s">
-        <x:v>509</x:v>
+        <x:v>512</x:v>
       </x:c>
       <x:c r="B5" s="2" t="s">
-        <x:v>508</x:v>
+        <x:v>511</x:v>
       </x:c>
       <x:c r="C5" s="3" t="n">
         <x:v>6914</x:v>
@@ -6601,90 +6628,99 @@
         <x:v>60199</x:v>
       </x:c>
       <x:c r="RO5" s="3" t="n">
-        <x:v>60570</x:v>
+        <x:v>60567</x:v>
       </x:c>
       <x:c r="RP5" s="3" t="n">
-        <x:v>56360</x:v>
+        <x:v>56376</x:v>
       </x:c>
       <x:c r="RQ5" s="3" t="n">
-        <x:v>68897</x:v>
+        <x:v>68887</x:v>
       </x:c>
       <x:c r="RR5" s="3" t="n">
-        <x:v>55352</x:v>
+        <x:v>55346</x:v>
       </x:c>
       <x:c r="RS5" s="3" t="n">
-        <x:v>57391</x:v>
+        <x:v>57393</x:v>
       </x:c>
       <x:c r="RT5" s="3" t="n">
-        <x:v>66089</x:v>
+        <x:v>65856</x:v>
       </x:c>
       <x:c r="RU5" s="3" t="n">
-        <x:v>60053</x:v>
+        <x:v>60031</x:v>
       </x:c>
       <x:c r="RV5" s="3" t="n">
-        <x:v>60344</x:v>
+        <x:v>60301</x:v>
       </x:c>
       <x:c r="RW5" s="3" t="n">
-        <x:v>68878</x:v>
+        <x:v>68859</x:v>
       </x:c>
       <x:c r="RX5" s="3" t="n">
-        <x:v>67515</x:v>
+        <x:v>67480</x:v>
       </x:c>
       <x:c r="RY5" s="3" t="n">
-        <x:v>69749</x:v>
+        <x:v>69732</x:v>
       </x:c>
       <x:c r="RZ5" s="3" t="n">
-        <x:v>64014</x:v>
+        <x:v>64271</x:v>
       </x:c>
       <x:c r="SA5" s="3" t="n">
-        <x:v>55564</x:v>
+        <x:v>55562</x:v>
       </x:c>
       <x:c r="SB5" s="3" t="n">
-        <x:v>57704</x:v>
+        <x:v>57700</x:v>
       </x:c>
       <x:c r="SC5" s="3" t="n">
-        <x:v>72406</x:v>
+        <x:v>72401</x:v>
       </x:c>
       <x:c r="SD5" s="3" t="n">
-        <x:v>65387</x:v>
+        <x:v>65376</x:v>
       </x:c>
       <x:c r="SE5" s="3" t="n">
-        <x:v>72458</x:v>
+        <x:v>72453</x:v>
       </x:c>
       <x:c r="SF5" s="3" t="n">
-        <x:v>73506</x:v>
+        <x:v>73496</x:v>
       </x:c>
       <x:c r="SG5" s="3" t="n">
-        <x:v>64756</x:v>
+        <x:v>64749</x:v>
       </x:c>
       <x:c r="SH5" s="3" t="n">
-        <x:v>73044</x:v>
+        <x:v>73006</x:v>
       </x:c>
       <x:c r="SI5" s="3" t="n">
-        <x:v>75283</x:v>
+        <x:v>75142</x:v>
       </x:c>
       <x:c r="SJ5" s="3" t="n">
-        <x:v>72149</x:v>
+        <x:v>72025</x:v>
       </x:c>
       <x:c r="SK5" s="3" t="n">
-        <x:v>80471</x:v>
+        <x:v>80466</x:v>
       </x:c>
       <x:c r="SL5" s="3" t="n">
-        <x:v>75619</x:v>
+        <x:v>77384</x:v>
       </x:c>
       <x:c r="SM5" s="3" t="n">
-        <x:v>68594</x:v>
+        <x:v>68876</x:v>
       </x:c>
       <x:c r="SN5" s="3" t="n">
-        <x:v>70025</x:v>
+        <x:v>75973</x:v>
+      </x:c>
+      <x:c r="SO5" s="3" t="n">
+        <x:v>89678</x:v>
+      </x:c>
+      <x:c r="SP5" s="3" t="n">
+        <x:v>72574</x:v>
+      </x:c>
+      <x:c r="SQ5" s="3" t="n">
+        <x:v>89138</x:v>
       </x:c>
     </x:row>
-    <x:row r="6" spans="1:508">
+    <x:row r="6" spans="1:511">
       <x:c r="A6" s="2" t="s">
-        <x:v>510</x:v>
+        <x:v>513</x:v>
       </x:c>
       <x:c r="B6" s="2" t="s">
-        <x:v>508</x:v>
+        <x:v>511</x:v>
       </x:c>
       <x:c r="C6" s="3" t="n">
         <x:v>6914</x:v>
@@ -8127,90 +8163,99 @@
         <x:v>60199</x:v>
       </x:c>
       <x:c r="RO6" s="3" t="n">
-        <x:v>60570</x:v>
+        <x:v>60567</x:v>
       </x:c>
       <x:c r="RP6" s="3" t="n">
-        <x:v>56360</x:v>
+        <x:v>56376</x:v>
       </x:c>
       <x:c r="RQ6" s="3" t="n">
-        <x:v>68897</x:v>
+        <x:v>68887</x:v>
       </x:c>
       <x:c r="RR6" s="3" t="n">
-        <x:v>55352</x:v>
+        <x:v>55346</x:v>
       </x:c>
       <x:c r="RS6" s="3" t="n">
-        <x:v>57391</x:v>
+        <x:v>57393</x:v>
       </x:c>
       <x:c r="RT6" s="3" t="n">
-        <x:v>66089</x:v>
+        <x:v>65856</x:v>
       </x:c>
       <x:c r="RU6" s="3" t="n">
-        <x:v>60053</x:v>
+        <x:v>60031</x:v>
       </x:c>
       <x:c r="RV6" s="3" t="n">
-        <x:v>59240</x:v>
+        <x:v>59197</x:v>
       </x:c>
       <x:c r="RW6" s="3" t="n">
-        <x:v>68878</x:v>
+        <x:v>68859</x:v>
       </x:c>
       <x:c r="RX6" s="3" t="n">
-        <x:v>67515</x:v>
+        <x:v>67480</x:v>
       </x:c>
       <x:c r="RY6" s="3" t="n">
-        <x:v>69749</x:v>
+        <x:v>69732</x:v>
       </x:c>
       <x:c r="RZ6" s="3" t="n">
-        <x:v>64014</x:v>
+        <x:v>64271</x:v>
       </x:c>
       <x:c r="SA6" s="3" t="n">
-        <x:v>55564</x:v>
+        <x:v>55562</x:v>
       </x:c>
       <x:c r="SB6" s="3" t="n">
-        <x:v>57704</x:v>
+        <x:v>57700</x:v>
       </x:c>
       <x:c r="SC6" s="3" t="n">
-        <x:v>72406</x:v>
+        <x:v>72401</x:v>
       </x:c>
       <x:c r="SD6" s="3" t="n">
-        <x:v>65387</x:v>
+        <x:v>65376</x:v>
       </x:c>
       <x:c r="SE6" s="3" t="n">
-        <x:v>72458</x:v>
+        <x:v>72453</x:v>
       </x:c>
       <x:c r="SF6" s="3" t="n">
-        <x:v>73506</x:v>
+        <x:v>73496</x:v>
       </x:c>
       <x:c r="SG6" s="3" t="n">
-        <x:v>64756</x:v>
+        <x:v>64749</x:v>
       </x:c>
       <x:c r="SH6" s="3" t="n">
-        <x:v>73044</x:v>
+        <x:v>73006</x:v>
       </x:c>
       <x:c r="SI6" s="3" t="n">
-        <x:v>75283</x:v>
+        <x:v>75142</x:v>
       </x:c>
       <x:c r="SJ6" s="3" t="n">
-        <x:v>72149</x:v>
+        <x:v>72025</x:v>
       </x:c>
       <x:c r="SK6" s="3" t="n">
-        <x:v>80471</x:v>
+        <x:v>80466</x:v>
       </x:c>
       <x:c r="SL6" s="3" t="n">
-        <x:v>75619</x:v>
+        <x:v>77384</x:v>
       </x:c>
       <x:c r="SM6" s="3" t="n">
-        <x:v>68594</x:v>
+        <x:v>68876</x:v>
       </x:c>
       <x:c r="SN6" s="3" t="n">
-        <x:v>70025</x:v>
+        <x:v>70029</x:v>
+      </x:c>
+      <x:c r="SO6" s="3" t="n">
+        <x:v>89678</x:v>
+      </x:c>
+      <x:c r="SP6" s="3" t="n">
+        <x:v>72574</x:v>
+      </x:c>
+      <x:c r="SQ6" s="3" t="n">
+        <x:v>89138</x:v>
       </x:c>
     </x:row>
-    <x:row r="7" spans="1:508">
+    <x:row r="7" spans="1:511">
       <x:c r="A7" s="2" t="s">
+        <x:v>514</x:v>
+      </x:c>
+      <x:c r="B7" s="2" t="s">
         <x:v>511</x:v>
-      </x:c>
-      <x:c r="B7" s="2" t="s">
-        <x:v>508</x:v>
       </x:c>
       <x:c r="C7" s="3" t="n">
         <x:v>6342</x:v>
@@ -9653,90 +9698,99 @@
         <x:v>58304</x:v>
       </x:c>
       <x:c r="RO7" s="3" t="n">
-        <x:v>58975</x:v>
+        <x:v>58972</x:v>
       </x:c>
       <x:c r="RP7" s="3" t="n">
-        <x:v>54845</x:v>
+        <x:v>54862</x:v>
       </x:c>
       <x:c r="RQ7" s="3" t="n">
-        <x:v>68186</x:v>
+        <x:v>68176</x:v>
       </x:c>
       <x:c r="RR7" s="3" t="n">
-        <x:v>54907</x:v>
+        <x:v>54901</x:v>
       </x:c>
       <x:c r="RS7" s="3" t="n">
-        <x:v>57012</x:v>
+        <x:v>57014</x:v>
       </x:c>
       <x:c r="RT7" s="3" t="n">
-        <x:v>65483</x:v>
+        <x:v>65250</x:v>
       </x:c>
       <x:c r="RU7" s="3" t="n">
-        <x:v>59677</x:v>
+        <x:v>59656</x:v>
       </x:c>
       <x:c r="RV7" s="3" t="n">
-        <x:v>58465</x:v>
+        <x:v>58422</x:v>
       </x:c>
       <x:c r="RW7" s="3" t="n">
-        <x:v>68223</x:v>
+        <x:v>68204</x:v>
       </x:c>
       <x:c r="RX7" s="3" t="n">
-        <x:v>66641</x:v>
+        <x:v>66606</x:v>
       </x:c>
       <x:c r="RY7" s="3" t="n">
-        <x:v>69230</x:v>
+        <x:v>69214</x:v>
       </x:c>
       <x:c r="RZ7" s="3" t="n">
-        <x:v>63280</x:v>
+        <x:v>63219</x:v>
       </x:c>
       <x:c r="SA7" s="3" t="n">
-        <x:v>54429</x:v>
+        <x:v>54427</x:v>
       </x:c>
       <x:c r="SB7" s="3" t="n">
-        <x:v>56323</x:v>
+        <x:v>56319</x:v>
       </x:c>
       <x:c r="SC7" s="3" t="n">
-        <x:v>71366</x:v>
+        <x:v>71361</x:v>
       </x:c>
       <x:c r="SD7" s="3" t="n">
-        <x:v>63938</x:v>
+        <x:v>63928</x:v>
       </x:c>
       <x:c r="SE7" s="3" t="n">
-        <x:v>70941</x:v>
+        <x:v>70937</x:v>
       </x:c>
       <x:c r="SF7" s="3" t="n">
-        <x:v>72507</x:v>
+        <x:v>72497</x:v>
       </x:c>
       <x:c r="SG7" s="3" t="n">
-        <x:v>64691</x:v>
+        <x:v>64684</x:v>
       </x:c>
       <x:c r="SH7" s="3" t="n">
-        <x:v>72915</x:v>
+        <x:v>72878</x:v>
       </x:c>
       <x:c r="SI7" s="3" t="n">
-        <x:v>74402</x:v>
+        <x:v>74261</x:v>
       </x:c>
       <x:c r="SJ7" s="3" t="n">
-        <x:v>72149</x:v>
+        <x:v>72025</x:v>
       </x:c>
       <x:c r="SK7" s="3" t="n">
-        <x:v>79393</x:v>
+        <x:v>79385</x:v>
       </x:c>
       <x:c r="SL7" s="3" t="n">
-        <x:v>75619</x:v>
+        <x:v>76877</x:v>
       </x:c>
       <x:c r="SM7" s="3" t="n">
-        <x:v>68516</x:v>
+        <x:v>68797</x:v>
       </x:c>
       <x:c r="SN7" s="3" t="n">
-        <x:v>70025</x:v>
+        <x:v>70029</x:v>
+      </x:c>
+      <x:c r="SO7" s="3" t="n">
+        <x:v>88080</x:v>
+      </x:c>
+      <x:c r="SP7" s="3" t="n">
+        <x:v>72574</x:v>
+      </x:c>
+      <x:c r="SQ7" s="3" t="n">
+        <x:v>89138</x:v>
       </x:c>
     </x:row>
-    <x:row r="8" spans="1:508">
+    <x:row r="8" spans="1:511">
       <x:c r="A8" s="2" t="s">
-        <x:v>512</x:v>
+        <x:v>515</x:v>
       </x:c>
       <x:c r="B8" s="2" t="s">
-        <x:v>508</x:v>
+        <x:v>511</x:v>
       </x:c>
       <x:c r="C8" s="3" t="n">
         <x:v>8123</x:v>
@@ -11179,90 +11233,99 @@
         <x:v>84891</x:v>
       </x:c>
       <x:c r="RO8" s="3" t="n">
-        <x:v>76596</x:v>
+        <x:v>78453</x:v>
       </x:c>
       <x:c r="RP8" s="3" t="n">
-        <x:v>74346</x:v>
+        <x:v>74067</x:v>
       </x:c>
       <x:c r="RQ8" s="3" t="n">
-        <x:v>68039</x:v>
+        <x:v>66463</x:v>
       </x:c>
       <x:c r="RR8" s="3" t="n">
-        <x:v>51542</x:v>
+        <x:v>52480</x:v>
       </x:c>
       <x:c r="RS8" s="3" t="n">
-        <x:v>51768</x:v>
+        <x:v>51278</x:v>
       </x:c>
       <x:c r="RT8" s="3" t="n">
-        <x:v>57344</x:v>
+        <x:v>56920</x:v>
       </x:c>
       <x:c r="RU8" s="3" t="n">
-        <x:v>61179</x:v>
+        <x:v>58975</x:v>
       </x:c>
       <x:c r="RV8" s="3" t="n">
-        <x:v>58763</x:v>
+        <x:v>58503</x:v>
       </x:c>
       <x:c r="RW8" s="3" t="n">
-        <x:v>59576</x:v>
+        <x:v>61831</x:v>
       </x:c>
       <x:c r="RX8" s="3" t="n">
-        <x:v>72969</x:v>
+        <x:v>71986</x:v>
       </x:c>
       <x:c r="RY8" s="3" t="n">
-        <x:v>70427</x:v>
+        <x:v>70126</x:v>
       </x:c>
       <x:c r="RZ8" s="3" t="n">
-        <x:v>75756</x:v>
+        <x:v>78372</x:v>
       </x:c>
       <x:c r="SA8" s="3" t="n">
-        <x:v>79449</x:v>
+        <x:v>80571</x:v>
       </x:c>
       <x:c r="SB8" s="3" t="n">
-        <x:v>79488</x:v>
+        <x:v>78708</x:v>
       </x:c>
       <x:c r="SC8" s="3" t="n">
-        <x:v>94751</x:v>
+        <x:v>94557</x:v>
       </x:c>
       <x:c r="SD8" s="3" t="n">
-        <x:v>88945</x:v>
+        <x:v>85381</x:v>
       </x:c>
       <x:c r="SE8" s="3" t="n">
-        <x:v>89965</x:v>
+        <x:v>90828</x:v>
       </x:c>
       <x:c r="SF8" s="3" t="n">
-        <x:v>96300</x:v>
+        <x:v>99290</x:v>
       </x:c>
       <x:c r="SG8" s="3" t="n">
-        <x:v>107348</x:v>
+        <x:v>107665</x:v>
       </x:c>
       <x:c r="SH8" s="3" t="n">
-        <x:v>115585</x:v>
+        <x:v>118177</x:v>
       </x:c>
       <x:c r="SI8" s="3" t="n">
-        <x:v>129610</x:v>
+        <x:v>130853</x:v>
       </x:c>
       <x:c r="SJ8" s="3" t="n">
-        <x:v>156538</x:v>
+        <x:v>157230</x:v>
       </x:c>
       <x:c r="SK8" s="3" t="n">
-        <x:v>158049</x:v>
+        <x:v>158407</x:v>
       </x:c>
       <x:c r="SL8" s="3" t="n">
-        <x:v>181767</x:v>
+        <x:v>187222</x:v>
       </x:c>
       <x:c r="SM8" s="3" t="n">
-        <x:v>160380</x:v>
+        <x:v>161193</x:v>
       </x:c>
       <x:c r="SN8" s="3" t="n">
-        <x:v>154213</x:v>
+        <x:v>154497</x:v>
+      </x:c>
+      <x:c r="SO8" s="3" t="n">
+        <x:v>227520</x:v>
+      </x:c>
+      <x:c r="SP8" s="3" t="n">
+        <x:v>165527</x:v>
+      </x:c>
+      <x:c r="SQ8" s="3" t="n">
+        <x:v>175836</x:v>
       </x:c>
     </x:row>
-    <x:row r="9" spans="1:508">
+    <x:row r="9" spans="1:511">
       <x:c r="A9" s="2" t="s">
-        <x:v>513</x:v>
+        <x:v>516</x:v>
       </x:c>
       <x:c r="B9" s="2" t="s">
-        <x:v>508</x:v>
+        <x:v>511</x:v>
       </x:c>
       <x:c r="C9" s="3" t="n">
         <x:v>7725</x:v>
@@ -12705,90 +12768,99 @@
         <x:v>84309</x:v>
       </x:c>
       <x:c r="RO9" s="3" t="n">
-        <x:v>76517</x:v>
+        <x:v>78374</x:v>
       </x:c>
       <x:c r="RP9" s="3" t="n">
-        <x:v>74323</x:v>
+        <x:v>74044</x:v>
       </x:c>
       <x:c r="RQ9" s="3" t="n">
-        <x:v>67961</x:v>
+        <x:v>66385</x:v>
       </x:c>
       <x:c r="RR9" s="3" t="n">
-        <x:v>51224</x:v>
+        <x:v>52162</x:v>
       </x:c>
       <x:c r="RS9" s="3" t="n">
-        <x:v>51768</x:v>
+        <x:v>51278</x:v>
       </x:c>
       <x:c r="RT9" s="3" t="n">
-        <x:v>57344</x:v>
+        <x:v>56920</x:v>
       </x:c>
       <x:c r="RU9" s="3" t="n">
-        <x:v>61114</x:v>
+        <x:v>58909</x:v>
       </x:c>
       <x:c r="RV9" s="3" t="n">
-        <x:v>58353</x:v>
+        <x:v>58093</x:v>
       </x:c>
       <x:c r="RW9" s="3" t="n">
-        <x:v>59294</x:v>
+        <x:v>61549</x:v>
       </x:c>
       <x:c r="RX9" s="3" t="n">
-        <x:v>72680</x:v>
+        <x:v>71698</x:v>
       </x:c>
       <x:c r="RY9" s="3" t="n">
-        <x:v>70427</x:v>
+        <x:v>70126</x:v>
       </x:c>
       <x:c r="RZ9" s="3" t="n">
-        <x:v>75720</x:v>
+        <x:v>78336</x:v>
       </x:c>
       <x:c r="SA9" s="3" t="n">
-        <x:v>79449</x:v>
+        <x:v>80571</x:v>
       </x:c>
       <x:c r="SB9" s="3" t="n">
-        <x:v>78829</x:v>
+        <x:v>78049</x:v>
       </x:c>
       <x:c r="SC9" s="3" t="n">
-        <x:v>94686</x:v>
+        <x:v>94493</x:v>
       </x:c>
       <x:c r="SD9" s="3" t="n">
-        <x:v>88597</x:v>
+        <x:v>85032</x:v>
       </x:c>
       <x:c r="SE9" s="3" t="n">
-        <x:v>89879</x:v>
+        <x:v>90728</x:v>
       </x:c>
       <x:c r="SF9" s="3" t="n">
-        <x:v>95938</x:v>
+        <x:v>98928</x:v>
       </x:c>
       <x:c r="SG9" s="3" t="n">
-        <x:v>107211</x:v>
+        <x:v>107528</x:v>
       </x:c>
       <x:c r="SH9" s="3" t="n">
-        <x:v>114881</x:v>
+        <x:v>117473</x:v>
       </x:c>
       <x:c r="SI9" s="3" t="n">
-        <x:v>129389</x:v>
+        <x:v>130632</x:v>
       </x:c>
       <x:c r="SJ9" s="3" t="n">
-        <x:v>156280</x:v>
+        <x:v>156837</x:v>
       </x:c>
       <x:c r="SK9" s="3" t="n">
-        <x:v>158034</x:v>
+        <x:v>157991</x:v>
       </x:c>
       <x:c r="SL9" s="3" t="n">
-        <x:v>181631</x:v>
+        <x:v>185392</x:v>
       </x:c>
       <x:c r="SM9" s="3" t="n">
-        <x:v>160373</x:v>
+        <x:v>161186</x:v>
       </x:c>
       <x:c r="SN9" s="3" t="n">
-        <x:v>154213</x:v>
+        <x:v>154444</x:v>
+      </x:c>
+      <x:c r="SO9" s="3" t="n">
+        <x:v>227520</x:v>
+      </x:c>
+      <x:c r="SP9" s="3" t="n">
+        <x:v>165527</x:v>
+      </x:c>
+      <x:c r="SQ9" s="3" t="n">
+        <x:v>175836</x:v>
       </x:c>
     </x:row>
-    <x:row r="10" spans="1:508">
+    <x:row r="10" spans="1:511">
       <x:c r="A10" s="2" t="s">
-        <x:v>514</x:v>
+        <x:v>517</x:v>
       </x:c>
       <x:c r="B10" s="2" t="s">
-        <x:v>508</x:v>
+        <x:v>511</x:v>
       </x:c>
       <x:c r="C10" s="3" t="n">
         <x:v>7459</x:v>
@@ -14231,90 +14303,99 @@
         <x:v>84213</x:v>
       </x:c>
       <x:c r="RO10" s="3" t="n">
-        <x:v>76517</x:v>
+        <x:v>78374</x:v>
       </x:c>
       <x:c r="RP10" s="3" t="n">
-        <x:v>74323</x:v>
+        <x:v>74044</x:v>
       </x:c>
       <x:c r="RQ10" s="3" t="n">
-        <x:v>65901</x:v>
+        <x:v>64324</x:v>
       </x:c>
       <x:c r="RR10" s="3" t="n">
-        <x:v>51224</x:v>
+        <x:v>52162</x:v>
       </x:c>
       <x:c r="RS10" s="3" t="n">
-        <x:v>51361</x:v>
+        <x:v>50871</x:v>
       </x:c>
       <x:c r="RT10" s="3" t="n">
-        <x:v>57044</x:v>
+        <x:v>56620</x:v>
       </x:c>
       <x:c r="RU10" s="3" t="n">
-        <x:v>60065</x:v>
+        <x:v>57860</x:v>
       </x:c>
       <x:c r="RV10" s="3" t="n">
-        <x:v>58353</x:v>
+        <x:v>58093</x:v>
       </x:c>
       <x:c r="RW10" s="3" t="n">
-        <x:v>59294</x:v>
+        <x:v>61549</x:v>
       </x:c>
       <x:c r="RX10" s="3" t="n">
-        <x:v>72680</x:v>
+        <x:v>71698</x:v>
       </x:c>
       <x:c r="RY10" s="3" t="n">
-        <x:v>70427</x:v>
+        <x:v>70126</x:v>
       </x:c>
       <x:c r="RZ10" s="3" t="n">
-        <x:v>75720</x:v>
+        <x:v>78336</x:v>
       </x:c>
       <x:c r="SA10" s="3" t="n">
-        <x:v>79449</x:v>
+        <x:v>80571</x:v>
       </x:c>
       <x:c r="SB10" s="3" t="n">
-        <x:v>78829</x:v>
+        <x:v>78049</x:v>
       </x:c>
       <x:c r="SC10" s="3" t="n">
-        <x:v>94686</x:v>
+        <x:v>94493</x:v>
       </x:c>
       <x:c r="SD10" s="3" t="n">
-        <x:v>88597</x:v>
+        <x:v>85032</x:v>
       </x:c>
       <x:c r="SE10" s="3" t="n">
-        <x:v>89879</x:v>
+        <x:v>90728</x:v>
       </x:c>
       <x:c r="SF10" s="3" t="n">
-        <x:v>94398</x:v>
+        <x:v>97388</x:v>
       </x:c>
       <x:c r="SG10" s="3" t="n">
-        <x:v>104116</x:v>
+        <x:v>104433</x:v>
       </x:c>
       <x:c r="SH10" s="3" t="n">
-        <x:v>114881</x:v>
+        <x:v>117473</x:v>
       </x:c>
       <x:c r="SI10" s="3" t="n">
-        <x:v>128091</x:v>
+        <x:v>129335</x:v>
       </x:c>
       <x:c r="SJ10" s="3" t="n">
-        <x:v>156280</x:v>
+        <x:v>156837</x:v>
       </x:c>
       <x:c r="SK10" s="3" t="n">
-        <x:v>158034</x:v>
+        <x:v>157991</x:v>
       </x:c>
       <x:c r="SL10" s="3" t="n">
-        <x:v>181631</x:v>
+        <x:v>182450</x:v>
       </x:c>
       <x:c r="SM10" s="3" t="n">
-        <x:v>160373</x:v>
+        <x:v>161186</x:v>
       </x:c>
       <x:c r="SN10" s="3" t="n">
-        <x:v>154213</x:v>
+        <x:v>154444</x:v>
+      </x:c>
+      <x:c r="SO10" s="3" t="n">
+        <x:v>227173</x:v>
+      </x:c>
+      <x:c r="SP10" s="3" t="n">
+        <x:v>165527</x:v>
+      </x:c>
+      <x:c r="SQ10" s="3" t="n">
+        <x:v>174104</x:v>
       </x:c>
     </x:row>
-    <x:row r="11" spans="1:508">
+    <x:row r="11" spans="1:511">
       <x:c r="A11" s="2" t="s">
-        <x:v>515</x:v>
+        <x:v>518</x:v>
       </x:c>
       <x:c r="B11" s="2" t="s">
-        <x:v>508</x:v>
+        <x:v>511</x:v>
       </x:c>
       <x:c r="C11" s="3" t="n">
         <x:v>7459</x:v>
@@ -15757,90 +15838,99 @@
         <x:v>84213</x:v>
       </x:c>
       <x:c r="RO11" s="3" t="n">
-        <x:v>76517</x:v>
+        <x:v>78374</x:v>
       </x:c>
       <x:c r="RP11" s="3" t="n">
-        <x:v>74323</x:v>
+        <x:v>74044</x:v>
       </x:c>
       <x:c r="RQ11" s="3" t="n">
-        <x:v>65901</x:v>
+        <x:v>64324</x:v>
       </x:c>
       <x:c r="RR11" s="3" t="n">
-        <x:v>51224</x:v>
+        <x:v>52162</x:v>
       </x:c>
       <x:c r="RS11" s="3" t="n">
-        <x:v>51361</x:v>
+        <x:v>50871</x:v>
       </x:c>
       <x:c r="RT11" s="3" t="n">
-        <x:v>57044</x:v>
+        <x:v>56620</x:v>
       </x:c>
       <x:c r="RU11" s="3" t="n">
-        <x:v>60065</x:v>
+        <x:v>57860</x:v>
       </x:c>
       <x:c r="RV11" s="3" t="n">
-        <x:v>58353</x:v>
+        <x:v>58093</x:v>
       </x:c>
       <x:c r="RW11" s="3" t="n">
-        <x:v>59294</x:v>
+        <x:v>61549</x:v>
       </x:c>
       <x:c r="RX11" s="3" t="n">
-        <x:v>72680</x:v>
+        <x:v>71698</x:v>
       </x:c>
       <x:c r="RY11" s="3" t="n">
-        <x:v>70427</x:v>
+        <x:v>70126</x:v>
       </x:c>
       <x:c r="RZ11" s="3" t="n">
-        <x:v>75720</x:v>
+        <x:v>78336</x:v>
       </x:c>
       <x:c r="SA11" s="3" t="n">
-        <x:v>79449</x:v>
+        <x:v>80571</x:v>
       </x:c>
       <x:c r="SB11" s="3" t="n">
-        <x:v>78829</x:v>
+        <x:v>78049</x:v>
       </x:c>
       <x:c r="SC11" s="3" t="n">
-        <x:v>94686</x:v>
+        <x:v>94493</x:v>
       </x:c>
       <x:c r="SD11" s="3" t="n">
-        <x:v>88597</x:v>
+        <x:v>85032</x:v>
       </x:c>
       <x:c r="SE11" s="3" t="n">
-        <x:v>89879</x:v>
+        <x:v>90728</x:v>
       </x:c>
       <x:c r="SF11" s="3" t="n">
-        <x:v>94398</x:v>
+        <x:v>97388</x:v>
       </x:c>
       <x:c r="SG11" s="3" t="n">
-        <x:v>104116</x:v>
+        <x:v>104433</x:v>
       </x:c>
       <x:c r="SH11" s="3" t="n">
-        <x:v>114881</x:v>
+        <x:v>117473</x:v>
       </x:c>
       <x:c r="SI11" s="3" t="n">
-        <x:v>128091</x:v>
+        <x:v>129335</x:v>
       </x:c>
       <x:c r="SJ11" s="3" t="n">
-        <x:v>156280</x:v>
+        <x:v>156837</x:v>
       </x:c>
       <x:c r="SK11" s="3" t="n">
-        <x:v>158034</x:v>
+        <x:v>157991</x:v>
       </x:c>
       <x:c r="SL11" s="3" t="n">
-        <x:v>181631</x:v>
+        <x:v>182450</x:v>
       </x:c>
       <x:c r="SM11" s="3" t="n">
-        <x:v>160373</x:v>
+        <x:v>161186</x:v>
       </x:c>
       <x:c r="SN11" s="3" t="n">
-        <x:v>154213</x:v>
+        <x:v>154444</x:v>
+      </x:c>
+      <x:c r="SO11" s="3" t="n">
+        <x:v>227173</x:v>
+      </x:c>
+      <x:c r="SP11" s="3" t="n">
+        <x:v>165527</x:v>
+      </x:c>
+      <x:c r="SQ11" s="3" t="n">
+        <x:v>174104</x:v>
       </x:c>
     </x:row>
-    <x:row r="12" spans="1:508">
+    <x:row r="12" spans="1:511">
       <x:c r="A12" s="2" t="s">
-        <x:v>516</x:v>
+        <x:v>519</x:v>
       </x:c>
       <x:c r="B12" s="2" t="s">
-        <x:v>508</x:v>
+        <x:v>511</x:v>
       </x:c>
       <x:c r="C12" s="3" t="n">
         <x:v>3872</x:v>
@@ -17283,90 +17373,99 @@
         <x:v>39059</x:v>
       </x:c>
       <x:c r="RO12" s="3" t="n">
-        <x:v>40806</x:v>
+        <x:v>40789</x:v>
       </x:c>
       <x:c r="RP12" s="3" t="n">
         <x:v>37822</x:v>
       </x:c>
       <x:c r="RQ12" s="3" t="n">
-        <x:v>41069</x:v>
+        <x:v>41015</x:v>
       </x:c>
       <x:c r="RR12" s="3" t="n">
-        <x:v>34967</x:v>
+        <x:v>34965</x:v>
       </x:c>
       <x:c r="RS12" s="3" t="n">
-        <x:v>32726</x:v>
+        <x:v>32705</x:v>
       </x:c>
       <x:c r="RT12" s="3" t="n">
-        <x:v>36100</x:v>
+        <x:v>36087</x:v>
       </x:c>
       <x:c r="RU12" s="3" t="n">
-        <x:v>32852</x:v>
+        <x:v>32859</x:v>
       </x:c>
       <x:c r="RV12" s="3" t="n">
-        <x:v>33074</x:v>
+        <x:v>33060</x:v>
       </x:c>
       <x:c r="RW12" s="3" t="n">
-        <x:v>37826</x:v>
+        <x:v>37825</x:v>
       </x:c>
       <x:c r="RX12" s="3" t="n">
-        <x:v>39656</x:v>
+        <x:v>39651</x:v>
       </x:c>
       <x:c r="RY12" s="3" t="n">
-        <x:v>36981</x:v>
+        <x:v>36964</x:v>
       </x:c>
       <x:c r="RZ12" s="3" t="n">
-        <x:v>39548</x:v>
+        <x:v>39535</x:v>
       </x:c>
       <x:c r="SA12" s="3" t="n">
-        <x:v>35630</x:v>
+        <x:v>35628</x:v>
       </x:c>
       <x:c r="SB12" s="3" t="n">
-        <x:v>38245</x:v>
+        <x:v>38271</x:v>
       </x:c>
       <x:c r="SC12" s="3" t="n">
-        <x:v>50160</x:v>
+        <x:v>50163</x:v>
       </x:c>
       <x:c r="SD12" s="3" t="n">
-        <x:v>39974</x:v>
+        <x:v>39964</x:v>
       </x:c>
       <x:c r="SE12" s="3" t="n">
-        <x:v>40913</x:v>
+        <x:v>40919</x:v>
       </x:c>
       <x:c r="SF12" s="3" t="n">
-        <x:v>47351</x:v>
+        <x:v>47366</x:v>
       </x:c>
       <x:c r="SG12" s="3" t="n">
-        <x:v>42502</x:v>
+        <x:v>42515</x:v>
       </x:c>
       <x:c r="SH12" s="3" t="n">
-        <x:v>44339</x:v>
+        <x:v>44364</x:v>
       </x:c>
       <x:c r="SI12" s="3" t="n">
-        <x:v>49036</x:v>
+        <x:v>49114</x:v>
       </x:c>
       <x:c r="SJ12" s="3" t="n">
-        <x:v>51082</x:v>
+        <x:v>51165</x:v>
       </x:c>
       <x:c r="SK12" s="3" t="n">
-        <x:v>50577</x:v>
+        <x:v>51006</x:v>
       </x:c>
       <x:c r="SL12" s="3" t="n">
-        <x:v>51331</x:v>
+        <x:v>52128</x:v>
       </x:c>
       <x:c r="SM12" s="3" t="n">
-        <x:v>45857</x:v>
+        <x:v>46670</x:v>
       </x:c>
       <x:c r="SN12" s="3" t="n">
-        <x:v>51358</x:v>
+        <x:v>51589</x:v>
+      </x:c>
+      <x:c r="SO12" s="3" t="n">
+        <x:v>63154</x:v>
+      </x:c>
+      <x:c r="SP12" s="3" t="n">
+        <x:v>49813</x:v>
+      </x:c>
+      <x:c r="SQ12" s="3" t="n">
+        <x:v>57680</x:v>
       </x:c>
     </x:row>
-    <x:row r="13" spans="1:508">
+    <x:row r="13" spans="1:511">
       <x:c r="A13" s="2" t="s">
-        <x:v>517</x:v>
+        <x:v>520</x:v>
       </x:c>
       <x:c r="B13" s="2" t="s">
-        <x:v>508</x:v>
+        <x:v>511</x:v>
       </x:c>
       <x:c r="C13" s="3" t="n">
         <x:v>1187</x:v>
@@ -18809,90 +18908,99 @@
         <x:v>23508</x:v>
       </x:c>
       <x:c r="RO13" s="3" t="n">
-        <x:v>15279</x:v>
+        <x:v>15941</x:v>
       </x:c>
       <x:c r="RP13" s="3" t="n">
-        <x:v>14610</x:v>
+        <x:v>14315</x:v>
       </x:c>
       <x:c r="RQ13" s="3" t="n">
-        <x:v>-1042</x:v>
+        <x:v>-2608</x:v>
       </x:c>
       <x:c r="RR13" s="3" t="n">
-        <x:v>-3857</x:v>
+        <x:v>-2913</x:v>
       </x:c>
       <x:c r="RS13" s="3" t="n">
-        <x:v>-5958</x:v>
+        <x:v>-6451</x:v>
       </x:c>
       <x:c r="RT13" s="3" t="n">
-        <x:v>-9212</x:v>
+        <x:v>-9403</x:v>
       </x:c>
       <x:c r="RU13" s="3" t="n">
-        <x:v>765</x:v>
+        <x:v>-2700</x:v>
       </x:c>
       <x:c r="RV13" s="3" t="n">
-        <x:v>-3624</x:v>
+        <x:v>-5067</x:v>
       </x:c>
       <x:c r="RW13" s="3" t="n">
-        <x:v>-9303</x:v>
+        <x:v>-7028</x:v>
       </x:c>
       <x:c r="RX13" s="3" t="n">
-        <x:v>5260</x:v>
+        <x:v>4034</x:v>
       </x:c>
       <x:c r="RY13" s="3" t="n">
-        <x:v>-749</x:v>
+        <x:v>-1225</x:v>
       </x:c>
       <x:c r="RZ13" s="3" t="n">
-        <x:v>11347</x:v>
+        <x:v>13706</x:v>
       </x:c>
       <x:c r="SA13" s="3" t="n">
-        <x:v>23814</x:v>
+        <x:v>24937</x:v>
       </x:c>
       <x:c r="SB13" s="3" t="n">
-        <x:v>20008</x:v>
+        <x:v>19232</x:v>
       </x:c>
       <x:c r="SC13" s="3" t="n">
-        <x:v>21108</x:v>
+        <x:v>20921</x:v>
       </x:c>
       <x:c r="SD13" s="3" t="n">
-        <x:v>23035</x:v>
+        <x:v>18546</x:v>
       </x:c>
       <x:c r="SE13" s="3" t="n">
-        <x:v>17448</x:v>
+        <x:v>18316</x:v>
       </x:c>
       <x:c r="SF13" s="3" t="n">
-        <x:v>22069</x:v>
+        <x:v>25069</x:v>
       </x:c>
       <x:c r="SG13" s="3" t="n">
-        <x:v>42430</x:v>
+        <x:v>42754</x:v>
       </x:c>
       <x:c r="SH13" s="3" t="n">
-        <x:v>41380</x:v>
+        <x:v>44010</x:v>
       </x:c>
       <x:c r="SI13" s="3" t="n">
-        <x:v>52591</x:v>
+        <x:v>53989</x:v>
       </x:c>
       <x:c r="SJ13" s="3" t="n">
-        <x:v>83555</x:v>
+        <x:v>84357</x:v>
       </x:c>
       <x:c r="SK13" s="3" t="n">
-        <x:v>77566</x:v>
+        <x:v>76763</x:v>
       </x:c>
       <x:c r="SL13" s="3" t="n">
-        <x:v>105954</x:v>
+        <x:v>107925</x:v>
       </x:c>
       <x:c r="SM13" s="3" t="n">
-        <x:v>91786</x:v>
+        <x:v>92318</x:v>
       </x:c>
       <x:c r="SN13" s="3" t="n">
-        <x:v>84182</x:v>
+        <x:v>78425</x:v>
+      </x:c>
+      <x:c r="SO13" s="3" t="n">
+        <x:v>137551</x:v>
+      </x:c>
+      <x:c r="SP13" s="3" t="n">
+        <x:v>92835</x:v>
+      </x:c>
+      <x:c r="SQ13" s="3" t="n">
+        <x:v>86617</x:v>
       </x:c>
     </x:row>
-    <x:row r="14" spans="1:508">
+    <x:row r="14" spans="1:511">
       <x:c r="A14" s="2" t="s">
-        <x:v>518</x:v>
+        <x:v>521</x:v>
       </x:c>
       <x:c r="B14" s="2" t="s">
-        <x:v>508</x:v>
+        <x:v>511</x:v>
       </x:c>
       <x:c r="C14" s="3" t="n">
         <x:v>545</x:v>
@@ -20335,90 +20443,99 @@
         <x:v>24014</x:v>
       </x:c>
       <x:c r="RO14" s="3" t="n">
-        <x:v>15946</x:v>
+        <x:v>17806</x:v>
       </x:c>
       <x:c r="RP14" s="3" t="n">
-        <x:v>17963</x:v>
+        <x:v>17668</x:v>
       </x:c>
       <x:c r="RQ14" s="3" t="n">
-        <x:v>-2996</x:v>
+        <x:v>-4563</x:v>
       </x:c>
       <x:c r="RR14" s="3" t="n">
-        <x:v>-4128</x:v>
+        <x:v>-3184</x:v>
       </x:c>
       <x:c r="RS14" s="3" t="n">
-        <x:v>-6029</x:v>
+        <x:v>-6522</x:v>
       </x:c>
       <x:c r="RT14" s="3" t="n">
-        <x:v>-9045</x:v>
+        <x:v>-9236</x:v>
       </x:c>
       <x:c r="RU14" s="3" t="n">
-        <x:v>12</x:v>
+        <x:v>-2171</x:v>
       </x:c>
       <x:c r="RV14" s="3" t="n">
-        <x:v>-887</x:v>
+        <x:v>-1104</x:v>
       </x:c>
       <x:c r="RW14" s="3" t="n">
-        <x:v>-9584</x:v>
+        <x:v>-7310</x:v>
       </x:c>
       <x:c r="RX14" s="3" t="n">
-        <x:v>5165</x:v>
+        <x:v>4217</x:v>
       </x:c>
       <x:c r="RY14" s="3" t="n">
-        <x:v>678</x:v>
+        <x:v>393</x:v>
       </x:c>
       <x:c r="RZ14" s="3" t="n">
-        <x:v>11706</x:v>
+        <x:v>14065</x:v>
       </x:c>
       <x:c r="SA14" s="3" t="n">
-        <x:v>23886</x:v>
+        <x:v>25009</x:v>
       </x:c>
       <x:c r="SB14" s="3" t="n">
-        <x:v>21125</x:v>
+        <x:v>20349</x:v>
       </x:c>
       <x:c r="SC14" s="3" t="n">
-        <x:v>22279</x:v>
+        <x:v>22092</x:v>
       </x:c>
       <x:c r="SD14" s="3" t="n">
-        <x:v>23210</x:v>
+        <x:v>19656</x:v>
       </x:c>
       <x:c r="SE14" s="3" t="n">
-        <x:v>17421</x:v>
+        <x:v>18275</x:v>
       </x:c>
       <x:c r="SF14" s="3" t="n">
-        <x:v>20892</x:v>
+        <x:v>23892</x:v>
       </x:c>
       <x:c r="SG14" s="3" t="n">
-        <x:v>39360</x:v>
+        <x:v>39684</x:v>
       </x:c>
       <x:c r="SH14" s="3" t="n">
-        <x:v>41837</x:v>
+        <x:v>44467</x:v>
       </x:c>
       <x:c r="SI14" s="3" t="n">
-        <x:v>52808</x:v>
+        <x:v>54192</x:v>
       </x:c>
       <x:c r="SJ14" s="3" t="n">
-        <x:v>84130</x:v>
+        <x:v>84813</x:v>
       </x:c>
       <x:c r="SK14" s="3" t="n">
-        <x:v>77563</x:v>
+        <x:v>77525</x:v>
       </x:c>
       <x:c r="SL14" s="3" t="n">
-        <x:v>106012</x:v>
+        <x:v>105066</x:v>
       </x:c>
       <x:c r="SM14" s="3" t="n">
-        <x:v>91778</x:v>
+        <x:v>92311</x:v>
       </x:c>
       <x:c r="SN14" s="3" t="n">
-        <x:v>84188</x:v>
+        <x:v>84415</x:v>
+      </x:c>
+      <x:c r="SO14" s="3" t="n">
+        <x:v>137495</x:v>
+      </x:c>
+      <x:c r="SP14" s="3" t="n">
+        <x:v>92953</x:v>
+      </x:c>
+      <x:c r="SQ14" s="3" t="n">
+        <x:v>84966</x:v>
       </x:c>
     </x:row>
-    <x:row r="15" spans="1:508">
+    <x:row r="15" spans="1:511">
       <x:c r="A15" s="2" t="s">
-        <x:v>519</x:v>
+        <x:v>522</x:v>
       </x:c>
       <x:c r="B15" s="2" t="s">
-        <x:v>508</x:v>
+        <x:v>511</x:v>
       </x:c>
       <x:c r="C15" s="3" t="n">
         <x:v>-3042</x:v>
@@ -21861,90 +21978,99 @@
         <x:v>-21140</x:v>
       </x:c>
       <x:c r="RO15" s="3" t="n">
-        <x:v>-19764</x:v>
+        <x:v>-19778</x:v>
       </x:c>
       <x:c r="RP15" s="3" t="n">
-        <x:v>-18537</x:v>
+        <x:v>-18554</x:v>
       </x:c>
       <x:c r="RQ15" s="3" t="n">
-        <x:v>-27827</x:v>
+        <x:v>-27873</x:v>
       </x:c>
       <x:c r="RR15" s="3" t="n">
-        <x:v>-20385</x:v>
+        <x:v>-20382</x:v>
       </x:c>
       <x:c r="RS15" s="3" t="n">
-        <x:v>-24664</x:v>
+        <x:v>-24688</x:v>
       </x:c>
       <x:c r="RT15" s="3" t="n">
-        <x:v>-29989</x:v>
+        <x:v>-29769</x:v>
       </x:c>
       <x:c r="RU15" s="3" t="n">
-        <x:v>-27201</x:v>
+        <x:v>-27173</x:v>
       </x:c>
       <x:c r="RV15" s="3" t="n">
-        <x:v>-26166</x:v>
+        <x:v>-26137</x:v>
       </x:c>
       <x:c r="RW15" s="3" t="n">
-        <x:v>-31052</x:v>
+        <x:v>-31034</x:v>
       </x:c>
       <x:c r="RX15" s="3" t="n">
-        <x:v>-27859</x:v>
+        <x:v>-27829</x:v>
       </x:c>
       <x:c r="RY15" s="3" t="n">
         <x:v>-32768</x:v>
       </x:c>
       <x:c r="RZ15" s="3" t="n">
-        <x:v>-24466</x:v>
+        <x:v>-24736</x:v>
       </x:c>
       <x:c r="SA15" s="3" t="n">
-        <x:v>-19934</x:v>
+        <x:v>-19935</x:v>
       </x:c>
       <x:c r="SB15" s="3" t="n">
-        <x:v>-19459</x:v>
+        <x:v>-19429</x:v>
       </x:c>
       <x:c r="SC15" s="3" t="n">
-        <x:v>-22246</x:v>
+        <x:v>-22237</x:v>
       </x:c>
       <x:c r="SD15" s="3" t="n">
         <x:v>-25413</x:v>
       </x:c>
       <x:c r="SE15" s="3" t="n">
-        <x:v>-31545</x:v>
+        <x:v>-31535</x:v>
       </x:c>
       <x:c r="SF15" s="3" t="n">
-        <x:v>-26155</x:v>
+        <x:v>-26131</x:v>
       </x:c>
       <x:c r="SG15" s="3" t="n">
-        <x:v>-22255</x:v>
+        <x:v>-22234</x:v>
       </x:c>
       <x:c r="SH15" s="3" t="n">
-        <x:v>-28705</x:v>
+        <x:v>-28642</x:v>
       </x:c>
       <x:c r="SI15" s="3" t="n">
-        <x:v>-26247</x:v>
+        <x:v>-26028</x:v>
       </x:c>
       <x:c r="SJ15" s="3" t="n">
-        <x:v>-21067</x:v>
+        <x:v>-20860</x:v>
       </x:c>
       <x:c r="SK15" s="3" t="n">
-        <x:v>-29894</x:v>
+        <x:v>-29461</x:v>
       </x:c>
       <x:c r="SL15" s="3" t="n">
-        <x:v>-24288</x:v>
+        <x:v>-25256</x:v>
       </x:c>
       <x:c r="SM15" s="3" t="n">
-        <x:v>-22737</x:v>
+        <x:v>-22205</x:v>
       </x:c>
       <x:c r="SN15" s="3" t="n">
-        <x:v>-18667</x:v>
+        <x:v>-18440</x:v>
+      </x:c>
+      <x:c r="SO15" s="3" t="n">
+        <x:v>-26524</x:v>
+      </x:c>
+      <x:c r="SP15" s="3" t="n">
+        <x:v>-22762</x:v>
+      </x:c>
+      <x:c r="SQ15" s="3" t="n">
+        <x:v>-31457</x:v>
       </x:c>
     </x:row>
-    <x:row r="16" spans="1:508">
+    <x:row r="16" spans="1:511">
       <x:c r="A16" s="2" t="s">
-        <x:v>520</x:v>
+        <x:v>523</x:v>
       </x:c>
       <x:c r="B16" s="2" t="s">
-        <x:v>508</x:v>
+        <x:v>511</x:v>
       </x:c>
       <x:c r="C16" s="3" t="n">
         <x:v>22</x:v>
@@ -22841,7 +22967,7 @@
         <x:v>101</x:v>
       </x:c>
       <x:c r="KO16" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="KP16" s="3" t="n">
         <x:v>2487</x:v>
@@ -23387,7 +23513,7 @@
         <x:v>1184</x:v>
       </x:c>
       <x:c r="RO16" s="3" t="n">
-        <x:v>746</x:v>
+        <x:v>1945</x:v>
       </x:c>
       <x:c r="RP16" s="3" t="n">
         <x:v>3376</x:v>
@@ -23405,19 +23531,19 @@
         <x:v>467</x:v>
       </x:c>
       <x:c r="RU16" s="3" t="n">
-        <x:v>361</x:v>
+        <x:v>1644</x:v>
       </x:c>
       <x:c r="RV16" s="3" t="n">
-        <x:v>2043</x:v>
+        <x:v>3269</x:v>
       </x:c>
       <x:c r="RW16" s="3" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="RX16" s="3" t="n">
-        <x:v>194</x:v>
+        <x:v>472</x:v>
       </x:c>
       <x:c r="RY16" s="3" t="n">
-        <x:v>1427</x:v>
+        <x:v>1618</x:v>
       </x:c>
       <x:c r="RZ16" s="3" t="n">
         <x:v>394</x:v>
@@ -23432,7 +23558,7 @@
         <x:v>1236</x:v>
       </x:c>
       <x:c r="SD16" s="3" t="n">
-        <x:v>523</x:v>
+        <x:v>1458</x:v>
       </x:c>
       <x:c r="SE16" s="3" t="n">
         <x:v>59</x:v>
@@ -23447,33 +23573,42 @@
         <x:v>1162</x:v>
       </x:c>
       <x:c r="SI16" s="3" t="n">
-        <x:v>1736</x:v>
+        <x:v>1722</x:v>
       </x:c>
       <x:c r="SJ16" s="3" t="n">
-        <x:v>834</x:v>
+        <x:v>848</x:v>
       </x:c>
       <x:c r="SK16" s="3" t="n">
-        <x:v>11</x:v>
+        <x:v>1177</x:v>
       </x:c>
       <x:c r="SL16" s="3" t="n">
-        <x:v>195</x:v>
+        <x:v>1913</x:v>
       </x:c>
       <x:c r="SM16" s="3" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="SN16" s="3" t="n">
-        <x:v>6</x:v>
+        <x:v>99</x:v>
+      </x:c>
+      <x:c r="SO16" s="3" t="n">
+        <x:v>291</x:v>
+      </x:c>
+      <x:c r="SP16" s="3" t="n">
+        <x:v>118</x:v>
+      </x:c>
+      <x:c r="SQ16" s="3" t="n">
+        <x:v>82</x:v>
       </x:c>
     </x:row>
-    <x:row r="17" spans="1:508">
+    <x:row r="17" spans="1:511">
       <x:c r="A17" s="2" t="s">
-        <x:v>522</x:v>
+        <x:v>525</x:v>
       </x:c>
       <x:c r="B17" s="2" t="s">
-        <x:v>508</x:v>
+        <x:v>511</x:v>
       </x:c>
       <x:c r="C17" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="D17" s="3" t="n">
         <x:v>2</x:v>
@@ -23515,7 +23650,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="Q17" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="R17" s="3" t="n">
         <x:v>72</x:v>
@@ -23551,10 +23686,10 @@
         <x:v>26</x:v>
       </x:c>
       <x:c r="AC17" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="AD17" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="AE17" s="3" t="n">
         <x:v>5</x:v>
@@ -23566,16 +23701,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="AH17" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="AI17" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="AJ17" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="AK17" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="AL17" s="3" t="n">
         <x:v>383</x:v>
@@ -23587,7 +23722,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="AO17" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="AP17" s="3" t="n">
         <x:v>8</x:v>
@@ -23695,7 +23830,7 @@
         <x:v>65</x:v>
       </x:c>
       <x:c r="BY17" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="BZ17" s="3" t="n">
         <x:v>109</x:v>
@@ -23704,7 +23839,7 @@
         <x:v>66</x:v>
       </x:c>
       <x:c r="CB17" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="CC17" s="3" t="n">
         <x:v>21</x:v>
@@ -24217,7 +24352,7 @@
         <x:v>1192</x:v>
       </x:c>
       <x:c r="IQ17" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="IR17" s="3" t="n">
         <x:v>7</x:v>
@@ -24295,7 +24430,7 @@
         <x:v>95</x:v>
       </x:c>
       <x:c r="JQ17" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="JR17" s="3" t="n">
         <x:v>526</x:v>
@@ -24304,7 +24439,7 @@
         <x:v>59</x:v>
       </x:c>
       <x:c r="JT17" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="JU17" s="3" t="n">
         <x:v>117</x:v>
@@ -24352,7 +24487,7 @@
         <x:v>78</x:v>
       </x:c>
       <x:c r="KJ17" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="KK17" s="3" t="n">
         <x:v>539</x:v>
@@ -24367,10 +24502,10 @@
         <x:v>101</x:v>
       </x:c>
       <x:c r="KO17" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="KP17" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="KQ17" s="3" t="n">
         <x:v>3</x:v>
@@ -24454,7 +24589,7 @@
         <x:v>600</x:v>
       </x:c>
       <x:c r="LR17" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="LS17" s="3" t="n">
         <x:v>195</x:v>
@@ -24478,7 +24613,7 @@
         <x:v>348</x:v>
       </x:c>
       <x:c r="LZ17" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="MA17" s="3" t="n">
         <x:v>265</x:v>
@@ -24574,7 +24709,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="NF17" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="NG17" s="3" t="n">
         <x:v>153</x:v>
@@ -24634,7 +24769,7 @@
         <x:v>129</x:v>
       </x:c>
       <x:c r="NZ17" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="OA17" s="3" t="n">
         <x:v>562</x:v>
@@ -24643,7 +24778,7 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="OC17" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="OD17" s="3" t="n">
         <x:v>187</x:v>
@@ -24667,7 +24802,7 @@
         <x:v>359</x:v>
       </x:c>
       <x:c r="OK17" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="OL17" s="3" t="n">
         <x:v>2</x:v>
@@ -24679,19 +24814,19 @@
         <x:v>433</x:v>
       </x:c>
       <x:c r="OO17" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="OP17" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="OQ17" s="3" t="n">
         <x:v>499</x:v>
       </x:c>
       <x:c r="OR17" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="OS17" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="OT17" s="3" t="n">
         <x:v>101</x:v>
@@ -24703,7 +24838,7 @@
         <x:v>90</x:v>
       </x:c>
       <x:c r="OW17" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="OX17" s="3" t="n">
         <x:v>8</x:v>
@@ -24718,7 +24853,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="PB17" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="PC17" s="3" t="n">
         <x:v>115</x:v>
@@ -24850,13 +24985,13 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="QT17" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="QU17" s="3" t="n">
         <x:v>157</x:v>
       </x:c>
       <x:c r="QV17" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="QW17" s="3" t="n">
         <x:v>3</x:v>
@@ -24874,7 +25009,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="RB17" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="RC17" s="3" t="n">
         <x:v>2</x:v>
@@ -24940,7 +25075,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="RX17" s="3" t="n">
-        <x:v>186</x:v>
+        <x:v>464</x:v>
       </x:c>
       <x:c r="RY17" s="3" t="n">
         <x:v>30</x:v>
@@ -24979,24 +25114,33 @@
         <x:v>364</x:v>
       </x:c>
       <x:c r="SK17" s="3" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="SL17" s="3" t="n">
-        <x:v>0</x:v>
+        <x:v>1253</x:v>
       </x:c>
       <x:c r="SM17" s="3" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="SN17" s="3" t="n">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="SO17" s="3" t="n">
         <x:v>0</x:v>
       </x:c>
+      <x:c r="SP17" s="3" t="n">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="SQ17" s="3" t="n">
+        <x:v>0</x:v>
+      </x:c>
     </x:row>
-    <x:row r="18" spans="1:508">
+    <x:row r="18" spans="1:511">
       <x:c r="A18" s="2" t="s">
-        <x:v>523</x:v>
+        <x:v>526</x:v>
       </x:c>
       <x:c r="B18" s="2" t="s">
-        <x:v>508</x:v>
+        <x:v>511</x:v>
       </x:c>
       <x:c r="C18" s="3" t="n">
         <x:v>22</x:v>
@@ -25005,22 +25149,22 @@
         <x:v>238</x:v>
       </x:c>
       <x:c r="E18" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="F18" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="G18" s="3" t="n">
         <x:v>136</x:v>
       </x:c>
       <x:c r="H18" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="I18" s="3" t="n">
         <x:v>382</x:v>
       </x:c>
       <x:c r="J18" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="K18" s="3" t="n">
         <x:v>79</x:v>
@@ -25044,13 +25188,13 @@
         <x:v>532</x:v>
       </x:c>
       <x:c r="R18" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="S18" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="T18" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="U18" s="3" t="n">
         <x:v>494</x:v>
@@ -25125,7 +25269,7 @@
         <x:v>417</x:v>
       </x:c>
       <x:c r="AS18" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="AT18" s="3" t="n">
         <x:v>102</x:v>
@@ -25161,7 +25305,7 @@
         <x:v>195</x:v>
       </x:c>
       <x:c r="BE18" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="BF18" s="3" t="n">
         <x:v>345</x:v>
@@ -25170,16 +25314,16 @@
         <x:v>405</x:v>
       </x:c>
       <x:c r="BH18" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="BI18" s="3" t="n">
         <x:v>140</x:v>
       </x:c>
       <x:c r="BJ18" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="BK18" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="BL18" s="3" t="n">
         <x:v>319</x:v>
@@ -25194,10 +25338,10 @@
         <x:v>558</x:v>
       </x:c>
       <x:c r="BP18" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="BQ18" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="BR18" s="3" t="n">
         <x:v>128</x:v>
@@ -25215,7 +25359,7 @@
         <x:v>380</x:v>
       </x:c>
       <x:c r="BW18" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="BX18" s="3" t="n">
         <x:v>488</x:v>
@@ -25224,7 +25368,7 @@
         <x:v>187</x:v>
       </x:c>
       <x:c r="BZ18" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="CA18" s="3" t="n">
         <x:v>29</x:v>
@@ -25233,37 +25377,37 @@
         <x:v>298</x:v>
       </x:c>
       <x:c r="CC18" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="CD18" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="CE18" s="3" t="n">
         <x:v>292</x:v>
       </x:c>
       <x:c r="CF18" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="CG18" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="CH18" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="CI18" s="3" t="n">
         <x:v>255</x:v>
       </x:c>
       <x:c r="CJ18" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="CK18" s="3" t="n">
         <x:v>747</x:v>
       </x:c>
       <x:c r="CL18" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="CM18" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="CN18" s="3" t="n">
         <x:v>114</x:v>
@@ -25272,16 +25416,16 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="CP18" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="CQ18" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="CR18" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="CS18" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="CT18" s="3" t="n">
         <x:v>374</x:v>
@@ -25290,10 +25434,10 @@
         <x:v>149</x:v>
       </x:c>
       <x:c r="CV18" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="CW18" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="CX18" s="3" t="n">
         <x:v>76</x:v>
@@ -25311,10 +25455,10 @@
         <x:v>82</x:v>
       </x:c>
       <x:c r="DC18" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="DD18" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="DE18" s="3" t="n">
         <x:v>466</x:v>
@@ -25326,7 +25470,7 @@
         <x:v>392</x:v>
       </x:c>
       <x:c r="DH18" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="DI18" s="3" t="n">
         <x:v>135</x:v>
@@ -25344,7 +25488,7 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="DN18" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="DO18" s="3" t="n">
         <x:v>9</x:v>
@@ -25362,13 +25506,13 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="DT18" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="DU18" s="3" t="n">
         <x:v>87</x:v>
       </x:c>
       <x:c r="DV18" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="DW18" s="3" t="n">
         <x:v>498</x:v>
@@ -25380,10 +25524,10 @@
         <x:v>402</x:v>
       </x:c>
       <x:c r="DZ18" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="EA18" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="EB18" s="3" t="n">
         <x:v>96</x:v>
@@ -25431,7 +25575,7 @@
         <x:v>606</x:v>
       </x:c>
       <x:c r="EQ18" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="ER18" s="3" t="n">
         <x:v>166</x:v>
@@ -25452,7 +25596,7 @@
         <x:v>561</x:v>
       </x:c>
       <x:c r="EX18" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="EY18" s="3" t="n">
         <x:v>367</x:v>
@@ -25476,7 +25620,7 @@
         <x:v>1449</x:v>
       </x:c>
       <x:c r="FF18" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="FG18" s="3" t="n">
         <x:v>541</x:v>
@@ -25500,13 +25644,13 @@
         <x:v>1497</x:v>
       </x:c>
       <x:c r="FN18" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="FO18" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="FP18" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="FQ18" s="3" t="n">
         <x:v>2096</x:v>
@@ -25515,7 +25659,7 @@
         <x:v>653</x:v>
       </x:c>
       <x:c r="FS18" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="FT18" s="3" t="n">
         <x:v>327</x:v>
@@ -25524,7 +25668,7 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="FV18" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="FW18" s="3" t="n">
         <x:v>356</x:v>
@@ -25533,13 +25677,13 @@
         <x:v>284</x:v>
       </x:c>
       <x:c r="FY18" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="FZ18" s="3" t="n">
         <x:v>297</x:v>
       </x:c>
       <x:c r="GA18" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="GB18" s="3" t="n">
         <x:v>334</x:v>
@@ -25548,7 +25692,7 @@
         <x:v>1090</x:v>
       </x:c>
       <x:c r="GD18" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="GE18" s="3" t="n">
         <x:v>270</x:v>
@@ -25560,7 +25704,7 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="GH18" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="GI18" s="3" t="n">
         <x:v>97</x:v>
@@ -25593,7 +25737,7 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="GS18" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="GT18" s="3" t="n">
         <x:v>3</x:v>
@@ -25602,7 +25746,7 @@
         <x:v>282</x:v>
       </x:c>
       <x:c r="GV18" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="GW18" s="3" t="n">
         <x:v>21</x:v>
@@ -25632,7 +25776,7 @@
         <x:v>707</x:v>
       </x:c>
       <x:c r="HF18" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="HG18" s="3" t="n">
         <x:v>1645</x:v>
@@ -25671,7 +25815,7 @@
         <x:v>571</x:v>
       </x:c>
       <x:c r="HS18" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="HT18" s="3" t="n">
         <x:v>28</x:v>
@@ -25791,16 +25935,16 @@
         <x:v>236</x:v>
       </x:c>
       <x:c r="JG18" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="JH18" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="JI18" s="3" t="n">
         <x:v>1</x:v>
       </x:c>
       <x:c r="JJ18" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="JK18" s="3" t="n">
         <x:v>271</x:v>
@@ -25815,7 +25959,7 @@
         <x:v>191</x:v>
       </x:c>
       <x:c r="JO18" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="JP18" s="3" t="n">
         <x:v>13</x:v>
@@ -25824,7 +25968,7 @@
         <x:v>375</x:v>
       </x:c>
       <x:c r="JR18" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="JS18" s="3" t="n">
         <x:v>1132</x:v>
@@ -25851,28 +25995,28 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="KA18" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="KB18" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="KC18" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="KD18" s="3" t="n">
         <x:v>387</x:v>
       </x:c>
       <x:c r="KE18" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="KF18" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="KG18" s="3" t="n">
         <x:v>455</x:v>
       </x:c>
       <x:c r="KH18" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="KI18" s="3" t="n">
         <x:v>204</x:v>
@@ -25881,7 +26025,7 @@
         <x:v>573</x:v>
       </x:c>
       <x:c r="KK18" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="KL18" s="3" t="n">
         <x:v>253</x:v>
@@ -25890,10 +26034,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="KN18" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="KO18" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="KP18" s="3" t="n">
         <x:v>2487</x:v>
@@ -25917,7 +26061,7 @@
         <x:v>119</x:v>
       </x:c>
       <x:c r="KW18" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="KX18" s="3" t="n">
         <x:v>0</x:v>
@@ -26172,7 +26316,7 @@
         <x:v>198</x:v>
       </x:c>
       <x:c r="OD18" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="OE18" s="3" t="n">
         <x:v>1052</x:v>
@@ -26196,7 +26340,7 @@
         <x:v>544</x:v>
       </x:c>
       <x:c r="OL18" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="OM18" s="3" t="n">
         <x:v>846</x:v>
@@ -26226,7 +26370,7 @@
         <x:v>435</x:v>
       </x:c>
       <x:c r="OV18" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="OW18" s="3" t="n">
         <x:v>99</x:v>
@@ -26256,13 +26400,13 @@
         <x:v>45</x:v>
       </x:c>
       <x:c r="PF18" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="PG18" s="3" t="n">
         <x:v>1041</x:v>
       </x:c>
       <x:c r="PH18" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="PI18" s="3" t="n">
         <x:v>686</x:v>
@@ -26340,7 +26484,7 @@
         <x:v>1245</x:v>
       </x:c>
       <x:c r="QH18" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="QI18" s="3" t="n">
         <x:v>694</x:v>
@@ -26397,7 +26541,7 @@
         <x:v>266</x:v>
       </x:c>
       <x:c r="RA18" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="RB18" s="3" t="n">
         <x:v>149</x:v>
@@ -26439,7 +26583,7 @@
         <x:v>956</x:v>
       </x:c>
       <x:c r="RO18" s="3" t="n">
-        <x:v>398</x:v>
+        <x:v>1596</x:v>
       </x:c>
       <x:c r="RP18" s="3" t="n">
         <x:v>2960</x:v>
@@ -26457,10 +26601,10 @@
         <x:v>464</x:v>
       </x:c>
       <x:c r="RU18" s="3" t="n">
-        <x:v>319</x:v>
+        <x:v>1602</x:v>
       </x:c>
       <x:c r="RV18" s="3" t="n">
-        <x:v>2043</x:v>
+        <x:v>3269</x:v>
       </x:c>
       <x:c r="RW18" s="3" t="n">
         <x:v>0</x:v>
@@ -26469,7 +26613,7 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="RY18" s="3" t="n">
-        <x:v>1397</x:v>
+        <x:v>1589</x:v>
       </x:c>
       <x:c r="RZ18" s="3" t="n">
         <x:v>370</x:v>
@@ -26484,7 +26628,7 @@
         <x:v>864</x:v>
       </x:c>
       <x:c r="SD18" s="3" t="n">
-        <x:v>510</x:v>
+        <x:v>1445</x:v>
       </x:c>
       <x:c r="SE18" s="3" t="n">
         <x:v>6</x:v>
@@ -26499,108 +26643,117 @@
         <x:v>612</x:v>
       </x:c>
       <x:c r="SI18" s="3" t="n">
-        <x:v>1446</x:v>
+        <x:v>1432</x:v>
       </x:c>
       <x:c r="SJ18" s="3" t="n">
-        <x:v>470</x:v>
+        <x:v>484</x:v>
       </x:c>
       <x:c r="SK18" s="3" t="n">
-        <x:v>11</x:v>
+        <x:v>1177</x:v>
       </x:c>
       <x:c r="SL18" s="3" t="n">
-        <x:v>195</x:v>
+        <x:v>661</x:v>
       </x:c>
       <x:c r="SM18" s="3" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="SN18" s="3" t="n">
-        <x:v>6</x:v>
+        <x:v>89</x:v>
+      </x:c>
+      <x:c r="SO18" s="3" t="n">
+        <x:v>291</x:v>
+      </x:c>
+      <x:c r="SP18" s="3" t="n">
+        <x:v>111</x:v>
+      </x:c>
+      <x:c r="SQ18" s="3" t="n">
+        <x:v>82</x:v>
       </x:c>
     </x:row>
-    <x:row r="19" spans="1:508">
+    <x:row r="19" spans="1:511">
       <x:c r="A19" s="2" t="s">
-        <x:v>524</x:v>
+        <x:v>527</x:v>
       </x:c>
       <x:c r="B19" s="2" t="s">
-        <x:v>508</x:v>
+        <x:v>511</x:v>
       </x:c>
       <x:c r="C19" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="D19" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="E19" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="F19" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="G19" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="H19" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="I19" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="J19" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="K19" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="L19" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="M19" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="N19" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="O19" s="3" t="n">
         <x:v>335</x:v>
       </x:c>
       <x:c r="P19" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="Q19" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="R19" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="S19" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="T19" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="U19" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="V19" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="W19" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="X19" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="Y19" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="Z19" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="AA19" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="AB19" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="AC19" s="3" t="n">
         <x:v>367</x:v>
@@ -26609,148 +26762,148 @@
         <x:v>575</x:v>
       </x:c>
       <x:c r="AE19" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="AF19" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="AG19" s="3" t="n">
         <x:v>704</x:v>
       </x:c>
       <x:c r="AH19" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="AI19" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="AJ19" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="AK19" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="AL19" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="AM19" s="3" t="n">
         <x:v>802</x:v>
       </x:c>
       <x:c r="AN19" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="AO19" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="AP19" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="AQ19" s="3" t="n">
         <x:v>678</x:v>
       </x:c>
       <x:c r="AR19" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="AS19" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="AT19" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="AU19" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="AV19" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="AW19" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="AX19" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="AY19" s="3" t="n">
         <x:v>550</x:v>
       </x:c>
       <x:c r="AZ19" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="BA19" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="BB19" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="BC19" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="BD19" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="BE19" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="BF19" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="BG19" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="BH19" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="BI19" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="BJ19" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="BK19" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="BL19" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="BM19" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="BN19" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="BO19" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="BP19" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="BQ19" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="BR19" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="BS19" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="BT19" s="3" t="n">
         <x:v>791</x:v>
       </x:c>
       <x:c r="BU19" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="BV19" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="BW19" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="BX19" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="BY19" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="BZ19" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="CA19" s="3" t="n">
         <x:v>588</x:v>
@@ -26759,157 +26912,157 @@
         <x:v>495</x:v>
       </x:c>
       <x:c r="CC19" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="CD19" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="CE19" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="CF19" s="3" t="n">
         <x:v>558</x:v>
       </x:c>
       <x:c r="CG19" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="CH19" s="3" t="n">
         <x:v>678</x:v>
       </x:c>
       <x:c r="CI19" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="CJ19" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="CK19" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="CL19" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="CM19" s="3" t="n">
         <x:v>532</x:v>
       </x:c>
       <x:c r="CN19" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="CO19" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="CP19" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="CQ19" s="3" t="n">
         <x:v>478</x:v>
       </x:c>
       <x:c r="CR19" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="CS19" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="CT19" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="CU19" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="CV19" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="CW19" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="CX19" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="CY19" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="CZ19" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="DA19" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="DB19" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="DC19" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="DD19" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="DE19" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="DF19" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="DG19" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="DH19" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="DI19" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="DJ19" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="DK19" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="DL19" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="DM19" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="DN19" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="DO19" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="DP19" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="DQ19" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="DR19" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="DS19" s="3" t="n">
         <x:v>111</x:v>
       </x:c>
       <x:c r="DT19" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="DU19" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="DV19" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="DW19" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="DX19" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="DY19" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="DZ19" s="3" t="n">
         <x:v>586</x:v>
       </x:c>
       <x:c r="EA19" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="EB19" s="3" t="n">
         <x:v>533</x:v>
@@ -26921,241 +27074,241 @@
         <x:v>1875</x:v>
       </x:c>
       <x:c r="EE19" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="EF19" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="EG19" s="3" t="n">
         <x:v>324</x:v>
       </x:c>
       <x:c r="EH19" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="EI19" s="3" t="n">
         <x:v>207</x:v>
       </x:c>
       <x:c r="EJ19" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="EK19" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="EL19" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="EM19" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="EN19" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="EO19" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="EP19" s="3" t="n">
         <x:v>470</x:v>
       </x:c>
       <x:c r="EQ19" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="ER19" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="ES19" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="ET19" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="EU19" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="EV19" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="EW19" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="EX19" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="EY19" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="EZ19" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="FA19" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="FB19" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="FC19" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="FD19" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="FE19" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="FF19" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="FG19" s="3" t="n">
         <x:v>995</x:v>
       </x:c>
       <x:c r="FH19" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="FI19" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="FJ19" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="FK19" s="3" t="n">
         <x:v>397</x:v>
       </x:c>
       <x:c r="FL19" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="FM19" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="FN19" s="3" t="n">
         <x:v>249</x:v>
       </x:c>
       <x:c r="FO19" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="FP19" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="FQ19" s="3" t="n">
         <x:v>52</x:v>
       </x:c>
       <x:c r="FR19" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="FS19" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="FT19" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="FU19" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="FV19" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="FW19" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="FX19" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="FY19" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="FZ19" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="GA19" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="GB19" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="GC19" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="GD19" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="GE19" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="GF19" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="GG19" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="GH19" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="GI19" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="GJ19" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="GK19" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="GL19" s="3" t="n">
         <x:v>176</x:v>
       </x:c>
       <x:c r="GM19" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="GN19" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="GO19" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="GP19" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="GQ19" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="GR19" s="3" t="n">
         <x:v>1653</x:v>
       </x:c>
       <x:c r="GS19" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="GT19" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="GU19" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="GV19" s="3" t="n">
         <x:v>1172</x:v>
       </x:c>
       <x:c r="GW19" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="GX19" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="GY19" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="GZ19" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="HA19" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="HB19" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="HC19" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="HD19" s="3" t="n">
         <x:v>1801</x:v>
       </x:c>
       <x:c r="HE19" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="HF19" s="3" t="n">
         <x:v>229</x:v>
@@ -27164,37 +27317,37 @@
         <x:v>60</x:v>
       </x:c>
       <x:c r="HH19" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="HI19" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="HJ19" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="HK19" s="3" t="n">
         <x:v>604</x:v>
       </x:c>
       <x:c r="HL19" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="HM19" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="HN19" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="HO19" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="HP19" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="HQ19" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="HR19" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="HS19" s="3" t="n">
         <x:v>1819</x:v>
@@ -27203,7 +27356,7 @@
         <x:v>1287</x:v>
       </x:c>
       <x:c r="HU19" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="HV19" s="3" t="n">
         <x:v>1977</x:v>
@@ -27212,40 +27365,40 @@
         <x:v>651</x:v>
       </x:c>
       <x:c r="HX19" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="HY19" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="HZ19" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="IA19" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="IB19" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="IC19" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="ID19" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="IE19" s="3" t="n">
         <x:v>1071</x:v>
       </x:c>
       <x:c r="IF19" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="IG19" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="IH19" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="II19" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="IJ19" s="3" t="n">
         <x:v>2266</x:v>
@@ -27254,58 +27407,58 @@
         <x:v>2540</x:v>
       </x:c>
       <x:c r="IL19" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="IM19" s="3" t="n">
         <x:v>457</x:v>
       </x:c>
       <x:c r="IN19" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="IO19" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="IP19" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="IQ19" s="3" t="n">
         <x:v>175</x:v>
       </x:c>
       <x:c r="IR19" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="IS19" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="IT19" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="IU19" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="IV19" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="IW19" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="IX19" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="IY19" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="IZ19" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="JA19" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="JB19" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="JC19" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="JD19" s="3" t="n">
         <x:v>754</x:v>
@@ -27314,457 +27467,457 @@
         <x:v>50</x:v>
       </x:c>
       <x:c r="JF19" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="JG19" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="JH19" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="JI19" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="JJ19" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="JK19" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="JL19" s="3" t="n">
         <x:v>4650</x:v>
       </x:c>
       <x:c r="JM19" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="JN19" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="JO19" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="JP19" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="JQ19" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="JR19" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="JS19" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="JT19" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="JU19" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="JV19" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="JW19" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="JX19" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="JY19" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="JZ19" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="KA19" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="KB19" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="KC19" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="KD19" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="KE19" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="KF19" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="KG19" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="KH19" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="KI19" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="KJ19" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="KK19" s="3" t="n">
         <x:v>556</x:v>
       </x:c>
       <x:c r="KL19" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="KM19" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="KN19" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="KO19" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="KP19" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="KQ19" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="KR19" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="KS19" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="KT19" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="KU19" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="KV19" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="KW19" s="3" t="n">
         <x:v>1053</x:v>
       </x:c>
       <x:c r="KX19" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="KY19" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="KZ19" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="LA19" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="LB19" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="LC19" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="LD19" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="LE19" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="LF19" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="LG19" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="LH19" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="LI19" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="LJ19" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="LK19" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="LL19" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="LM19" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="LN19" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="LO19" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="LP19" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="LQ19" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="LR19" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="LS19" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="LT19" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="LU19" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="LV19" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="LW19" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="LX19" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="LY19" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="LZ19" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="MA19" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="MB19" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="MC19" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="MD19" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="ME19" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="MF19" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="MG19" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="MH19" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="MI19" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="MJ19" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="MK19" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="ML19" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="MM19" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="MN19" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="MO19" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="MP19" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="MQ19" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="MR19" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="MS19" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="MT19" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="MU19" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="MV19" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="MW19" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="MX19" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="MY19" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="MZ19" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="NA19" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="NB19" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="NC19" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="ND19" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="NE19" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="NF19" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="NG19" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="NH19" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="NI19" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="NJ19" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="NK19" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="NL19" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="NM19" s="3" t="n">
         <x:v>8914</x:v>
       </x:c>
       <x:c r="NN19" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="NO19" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="NP19" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="NQ19" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="NR19" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="NS19" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="NT19" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="NU19" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="NV19" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="NW19" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="NX19" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="NY19" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="NZ19" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="OA19" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="OB19" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="OC19" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="OD19" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="OE19" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="OF19" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="OG19" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="OH19" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="OI19" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="OJ19" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="OK19" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="OL19" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="OM19" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="ON19" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="OO19" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="OP19" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="OQ19" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="OR19" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="OS19" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="OT19" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="OU19" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="OV19" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="OW19" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="OX19" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="OY19" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="OZ19" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="PA19" s="3" t="n">
         <x:v>4661</x:v>
@@ -27773,22 +27926,22 @@
         <x:v>1673</x:v>
       </x:c>
       <x:c r="PC19" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="PD19" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="PE19" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="PF19" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="PG19" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="PH19" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="PI19" s="3" t="n">
         <x:v>1487</x:v>
@@ -27797,136 +27950,136 @@
         <x:v>16764</x:v>
       </x:c>
       <x:c r="PK19" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="PL19" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="PM19" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="PN19" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="PO19" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="PP19" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="PQ19" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="PR19" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="PS19" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="PT19" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="PU19" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="PV19" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="PW19" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="PX19" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="PY19" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="PZ19" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="QA19" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="QB19" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="QC19" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="QD19" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="QE19" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="QF19" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="QG19" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="QH19" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="QI19" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="QJ19" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="QK19" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="QL19" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="QM19" s="3" t="n">
         <x:v>4994</x:v>
       </x:c>
       <x:c r="QN19" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="QO19" s="3" t="n">
         <x:v>5220</x:v>
       </x:c>
       <x:c r="QP19" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="QQ19" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="QR19" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="QS19" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="QT19" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="QU19" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="QV19" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="QW19" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="QX19" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="QY19" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="QZ19" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="RA19" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="RB19" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="RC19" s="3" t="n">
         <x:v>0</x:v>
@@ -28040,15 +28193,24 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="SN19" s="3" t="n">
+        <x:v>5944</x:v>
+      </x:c>
+      <x:c r="SO19" s="3" t="n">
         <x:v>0</x:v>
       </x:c>
+      <x:c r="SP19" s="3" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="SQ19" s="3" t="n">
+        <x:v>0</x:v>
+      </x:c>
     </x:row>
-    <x:row r="20" spans="1:508">
+    <x:row r="20" spans="1:511">
       <x:c r="A20" s="2" t="s">
-        <x:v>525</x:v>
+        <x:v>528</x:v>
       </x:c>
       <x:c r="B20" s="2" t="s">
-        <x:v>508</x:v>
+        <x:v>511</x:v>
       </x:c>
       <x:c r="C20" s="3" t="n">
         <x:v>22</x:v>
@@ -28945,7 +29107,7 @@
         <x:v>101</x:v>
       </x:c>
       <x:c r="KO20" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="KP20" s="3" t="n">
         <x:v>2487</x:v>
@@ -29491,7 +29653,7 @@
         <x:v>1184</x:v>
       </x:c>
       <x:c r="RO20" s="3" t="n">
-        <x:v>746</x:v>
+        <x:v>1945</x:v>
       </x:c>
       <x:c r="RP20" s="3" t="n">
         <x:v>3376</x:v>
@@ -29509,19 +29671,19 @@
         <x:v>467</x:v>
       </x:c>
       <x:c r="RU20" s="3" t="n">
-        <x:v>361</x:v>
+        <x:v>1644</x:v>
       </x:c>
       <x:c r="RV20" s="3" t="n">
-        <x:v>3147</x:v>
+        <x:v>4373</x:v>
       </x:c>
       <x:c r="RW20" s="3" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="RX20" s="3" t="n">
-        <x:v>194</x:v>
+        <x:v>472</x:v>
       </x:c>
       <x:c r="RY20" s="3" t="n">
-        <x:v>1427</x:v>
+        <x:v>1618</x:v>
       </x:c>
       <x:c r="RZ20" s="3" t="n">
         <x:v>394</x:v>
@@ -29536,7 +29698,7 @@
         <x:v>1236</x:v>
       </x:c>
       <x:c r="SD20" s="3" t="n">
-        <x:v>523</x:v>
+        <x:v>1458</x:v>
       </x:c>
       <x:c r="SE20" s="3" t="n">
         <x:v>59</x:v>
@@ -29551,30 +29713,39 @@
         <x:v>1162</x:v>
       </x:c>
       <x:c r="SI20" s="3" t="n">
-        <x:v>1736</x:v>
+        <x:v>1722</x:v>
       </x:c>
       <x:c r="SJ20" s="3" t="n">
-        <x:v>834</x:v>
+        <x:v>848</x:v>
       </x:c>
       <x:c r="SK20" s="3" t="n">
-        <x:v>11</x:v>
+        <x:v>1177</x:v>
       </x:c>
       <x:c r="SL20" s="3" t="n">
-        <x:v>195</x:v>
+        <x:v>1913</x:v>
       </x:c>
       <x:c r="SM20" s="3" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="SN20" s="3" t="n">
-        <x:v>6</x:v>
+        <x:v>6043</x:v>
+      </x:c>
+      <x:c r="SO20" s="3" t="n">
+        <x:v>291</x:v>
+      </x:c>
+      <x:c r="SP20" s="3" t="n">
+        <x:v>118</x:v>
+      </x:c>
+      <x:c r="SQ20" s="3" t="n">
+        <x:v>82</x:v>
       </x:c>
     </x:row>
-    <x:row r="21" spans="1:508">
+    <x:row r="21" spans="1:511">
       <x:c r="A21" s="2" t="s">
-        <x:v>526</x:v>
+        <x:v>529</x:v>
       </x:c>
       <x:c r="B21" s="2" t="s">
-        <x:v>508</x:v>
+        <x:v>511</x:v>
       </x:c>
       <x:c r="C21" s="3" t="n">
         <x:v>2519</x:v>
@@ -31047,10 +31218,10 @@
         <x:v>19045</x:v>
       </x:c>
       <x:c r="RY21" s="3" t="n">
-        <x:v>18897</x:v>
+        <x:v>19186</x:v>
       </x:c>
       <x:c r="RZ21" s="3" t="n">
-        <x:v>20381</x:v>
+        <x:v>21259</x:v>
       </x:c>
       <x:c r="SA21" s="3" t="n">
         <x:v>24560</x:v>
@@ -31065,28 +31236,28 @@
         <x:v>25323</x:v>
       </x:c>
       <x:c r="SE21" s="3" t="n">
-        <x:v>26784</x:v>
+        <x:v>27369</x:v>
       </x:c>
       <x:c r="SF21" s="3" t="n">
-        <x:v>26850</x:v>
+        <x:v>27011</x:v>
       </x:c>
       <x:c r="SG21" s="3" t="n">
-        <x:v>31702</x:v>
+        <x:v>32005</x:v>
       </x:c>
       <x:c r="SH21" s="3" t="n">
-        <x:v>31959</x:v>
+        <x:v>34527</x:v>
       </x:c>
       <x:c r="SI21" s="3" t="n">
-        <x:v>30351</x:v>
+        <x:v>31517</x:v>
       </x:c>
       <x:c r="SJ21" s="3" t="n">
-        <x:v>32710</x:v>
+        <x:v>33185</x:v>
       </x:c>
       <x:c r="SK21" s="3" t="n">
-        <x:v>34649</x:v>
+        <x:v>34177</x:v>
       </x:c>
       <x:c r="SL21" s="3" t="n">
-        <x:v>34912</x:v>
+        <x:v>34914</x:v>
       </x:c>
       <x:c r="SM21" s="3" t="n">
         <x:v>35182</x:v>
@@ -31094,13 +31265,22 @@
       <x:c r="SN21" s="3" t="n">
         <x:v>35306</x:v>
       </x:c>
+      <x:c r="SO21" s="3" t="n">
+        <x:v>51622</x:v>
+      </x:c>
+      <x:c r="SP21" s="3" t="n">
+        <x:v>42291</x:v>
+      </x:c>
+      <x:c r="SQ21" s="3" t="n">
+        <x:v>53431</x:v>
+      </x:c>
     </x:row>
-    <x:row r="22" spans="1:508">
+    <x:row r="22" spans="1:511">
       <x:c r="A22" s="2" t="s">
-        <x:v>527</x:v>
+        <x:v>530</x:v>
       </x:c>
       <x:c r="B22" s="2" t="s">
-        <x:v>508</x:v>
+        <x:v>511</x:v>
       </x:c>
       <x:c r="C22" s="3" t="n">
         <x:v>1068</x:v>
@@ -32543,58 +32723,58 @@
         <x:v>15760</x:v>
       </x:c>
       <x:c r="RO22" s="3" t="n">
-        <x:v>12035</x:v>
+        <x:v>13908</x:v>
       </x:c>
       <x:c r="RP22" s="3" t="n">
-        <x:v>11023</x:v>
+        <x:v>10745</x:v>
       </x:c>
       <x:c r="RQ22" s="3" t="n">
-        <x:v>12024</x:v>
+        <x:v>10502</x:v>
       </x:c>
       <x:c r="RR22" s="3" t="n">
-        <x:v>5900</x:v>
+        <x:v>6841</x:v>
       </x:c>
       <x:c r="RS22" s="3" t="n">
-        <x:v>5604</x:v>
+        <x:v>5135</x:v>
       </x:c>
       <x:c r="RT22" s="3" t="n">
-        <x:v>5702</x:v>
+        <x:v>5291</x:v>
       </x:c>
       <x:c r="RU22" s="3" t="n">
-        <x:v>7552</x:v>
+        <x:v>5341</x:v>
       </x:c>
       <x:c r="RV22" s="3" t="n">
-        <x:v>7266</x:v>
+        <x:v>7021</x:v>
       </x:c>
       <x:c r="RW22" s="3" t="n">
-        <x:v>7181</x:v>
+        <x:v>9437</x:v>
       </x:c>
       <x:c r="RX22" s="3" t="n">
-        <x:v>13642</x:v>
+        <x:v>12665</x:v>
       </x:c>
       <x:c r="RY22" s="3" t="n">
-        <x:v>14536</x:v>
+        <x:v>13963</x:v>
       </x:c>
       <x:c r="RZ22" s="3" t="n">
-        <x:v>15688</x:v>
+        <x:v>17438</x:v>
       </x:c>
       <x:c r="SA22" s="3" t="n">
-        <x:v>19005</x:v>
+        <x:v>20128</x:v>
       </x:c>
       <x:c r="SB22" s="3" t="n">
-        <x:v>16677</x:v>
+        <x:v>15873</x:v>
       </x:c>
       <x:c r="SC22" s="3" t="n">
-        <x:v>18283</x:v>
+        <x:v>18087</x:v>
       </x:c>
       <x:c r="SD22" s="3" t="n">
-        <x:v>23280</x:v>
+        <x:v>19726</x:v>
       </x:c>
       <x:c r="SE22" s="3" t="n">
-        <x:v>22009</x:v>
+        <x:v>22267</x:v>
       </x:c>
       <x:c r="SF22" s="3" t="n">
-        <x:v>19999</x:v>
+        <x:v>22815</x:v>
       </x:c>
       <x:c r="SG22" s="3" t="n">
         <x:v>29681</x:v>
@@ -32615,774 +32795,783 @@
         <x:v>95147</x:v>
       </x:c>
       <x:c r="SM22" s="3" t="n">
-        <x:v>79102</x:v>
+        <x:v>79103</x:v>
       </x:c>
       <x:c r="SN22" s="3" t="n">
         <x:v>67549</x:v>
       </x:c>
+      <x:c r="SO22" s="3" t="n">
+        <x:v>112397</x:v>
+      </x:c>
+      <x:c r="SP22" s="3" t="n">
+        <x:v>73327</x:v>
+      </x:c>
+      <x:c r="SQ22" s="3" t="n">
+        <x:v>62800</x:v>
+      </x:c>
     </x:row>
-    <x:row r="23" spans="1:508">
+    <x:row r="23" spans="1:511">
       <x:c r="A23" s="2" t="s">
-        <x:v>528</x:v>
+        <x:v>531</x:v>
       </x:c>
       <x:c r="B23" s="2" t="s">
-        <x:v>508</x:v>
+        <x:v>511</x:v>
       </x:c>
       <x:c r="C23" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="D23" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="E23" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="F23" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="G23" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="H23" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="I23" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="J23" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="K23" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="L23" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="M23" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="N23" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="O23" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="P23" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="Q23" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="R23" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="S23" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="T23" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="U23" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="V23" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="W23" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="X23" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="Y23" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="Z23" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="AA23" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="AB23" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="AC23" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="AD23" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="AE23" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="AF23" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="AG23" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="AH23" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="AI23" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="AJ23" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="AK23" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="AL23" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="AM23" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="AN23" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="AO23" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="AP23" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="AQ23" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="AR23" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="AS23" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="AT23" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="AU23" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="AV23" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="AW23" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="AX23" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="AY23" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="AZ23" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="BA23" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="BB23" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="BC23" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="BD23" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="BE23" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="BF23" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="BG23" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="BH23" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="BI23" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="BJ23" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="BK23" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="BL23" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="BM23" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="BN23" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="BO23" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="BP23" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="BQ23" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="BR23" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="BS23" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="BT23" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="BU23" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="BV23" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="BW23" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="BX23" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="BY23" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="BZ23" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="CA23" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="CB23" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="CC23" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="CD23" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="CE23" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="CF23" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="CG23" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="CH23" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="CI23" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="CJ23" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="CK23" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="CL23" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="CM23" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="CN23" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="CO23" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="CP23" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="CQ23" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="CR23" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="CS23" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="CT23" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="CU23" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="CV23" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="CW23" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="CX23" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="CY23" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="CZ23" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="DA23" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="DB23" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="DC23" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="DD23" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="DE23" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="DF23" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="DG23" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="DH23" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="DI23" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="DJ23" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="DK23" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="DL23" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="DM23" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="DN23" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="DO23" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="DP23" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="DQ23" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="DR23" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="DS23" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="DT23" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="DU23" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="DV23" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="DW23" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="DX23" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="DY23" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="DZ23" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="EA23" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="EB23" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="EC23" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="ED23" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="EE23" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="EF23" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="EG23" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="EH23" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="EI23" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="EJ23" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="EK23" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="EL23" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="EM23" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="EN23" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="EO23" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="EP23" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="EQ23" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="ER23" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="ES23" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="ET23" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="EU23" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="EV23" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="EW23" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="EX23" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="EY23" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="EZ23" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="FA23" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="FB23" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="FC23" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="FD23" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="FE23" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="FF23" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="FG23" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="FH23" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="FI23" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="FJ23" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="FK23" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="FL23" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="FM23" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="FN23" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="FO23" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="FP23" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="FQ23" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="FR23" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="FS23" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="FT23" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="FU23" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="FV23" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="FW23" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="FX23" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="FY23" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="FZ23" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="GA23" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="GB23" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="GC23" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="GD23" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="GE23" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="GF23" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="GG23" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="GH23" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="GI23" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="GJ23" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="GK23" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="GL23" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="GM23" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="GN23" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="GO23" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="GP23" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="GQ23" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="GR23" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="GS23" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="GT23" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="GU23" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="GV23" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="GW23" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="GX23" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="GY23" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="GZ23" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="HA23" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="HB23" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="HC23" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="HD23" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="HE23" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="HF23" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="HG23" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="HH23" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="HI23" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="HJ23" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="HK23" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="HL23" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="HM23" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="HN23" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="HO23" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="HP23" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="HQ23" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="HR23" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="HS23" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="HT23" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="HU23" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="HV23" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="HW23" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="HX23" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="HY23" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="HZ23" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="IA23" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="IB23" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="IC23" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="ID23" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="IE23" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="IF23" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="IG23" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="IH23" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="II23" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="IJ23" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="IK23" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="IL23" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="IM23" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="IN23" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="IO23" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="IP23" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="IQ23" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="IR23" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="IS23" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="IT23" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="IU23" s="3" t="n">
         <x:v>1180</x:v>
@@ -33607,13 +33796,13 @@
         <x:v>471</x:v>
       </x:c>
       <x:c r="LQ23" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="LR23" s="3" t="n">
         <x:v>1199</x:v>
       </x:c>
       <x:c r="LS23" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="LT23" s="3" t="n">
         <x:v>979</x:v>
@@ -34003,7 +34192,7 @@
         <x:v>767</x:v>
       </x:c>
       <x:c r="QS23" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="QT23" s="3" t="n">
         <x:v>686</x:v>
@@ -34012,7 +34201,7 @@
         <x:v>805</x:v>
       </x:c>
       <x:c r="QV23" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="QW23" s="3" t="n">
         <x:v>425</x:v>
@@ -34138,7 +34327,7 @@
         <x:v>227</x:v>
       </x:c>
       <x:c r="SL23" s="3" t="n">
-        <x:v>241</x:v>
+        <x:v>261</x:v>
       </x:c>
       <x:c r="SM23" s="3" t="n">
         <x:v>231</x:v>
@@ -34146,13 +34335,22 @@
       <x:c r="SN23" s="3" t="n">
         <x:v>0</x:v>
       </x:c>
+      <x:c r="SO23" s="3" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="SP23" s="3" t="n">
+        <x:v>97</x:v>
+      </x:c>
+      <x:c r="SQ23" s="3" t="n">
+        <x:v>192</x:v>
+      </x:c>
     </x:row>
-    <x:row r="24" spans="1:508">
+    <x:row r="24" spans="1:511">
       <x:c r="A24" s="2" t="s">
-        <x:v>529</x:v>
+        <x:v>532</x:v>
       </x:c>
       <x:c r="B24" s="2" t="s">
-        <x:v>508</x:v>
+        <x:v>511</x:v>
       </x:c>
       <x:c r="C24" s="3" t="n">
         <x:v>3586</x:v>
@@ -35595,76 +35793,76 @@
         <x:v>45154</x:v>
       </x:c>
       <x:c r="RO24" s="3" t="n">
-        <x:v>35711</x:v>
+        <x:v>37584</x:v>
       </x:c>
       <x:c r="RP24" s="3" t="n">
-        <x:v>36500</x:v>
+        <x:v>36222</x:v>
       </x:c>
       <x:c r="RQ24" s="3" t="n">
-        <x:v>24831</x:v>
+        <x:v>23310</x:v>
       </x:c>
       <x:c r="RR24" s="3" t="n">
-        <x:v>16257</x:v>
+        <x:v>17197</x:v>
       </x:c>
       <x:c r="RS24" s="3" t="n">
-        <x:v>18635</x:v>
+        <x:v>18166</x:v>
       </x:c>
       <x:c r="RT24" s="3" t="n">
-        <x:v>20944</x:v>
+        <x:v>20533</x:v>
       </x:c>
       <x:c r="RU24" s="3" t="n">
-        <x:v>27213</x:v>
+        <x:v>25001</x:v>
       </x:c>
       <x:c r="RV24" s="3" t="n">
-        <x:v>25279</x:v>
+        <x:v>25034</x:v>
       </x:c>
       <x:c r="RW24" s="3" t="n">
-        <x:v>21468</x:v>
+        <x:v>23724</x:v>
       </x:c>
       <x:c r="RX24" s="3" t="n">
-        <x:v>33024</x:v>
+        <x:v>32046</x:v>
       </x:c>
       <x:c r="RY24" s="3" t="n">
-        <x:v>33446</x:v>
+        <x:v>33161</x:v>
       </x:c>
       <x:c r="RZ24" s="3" t="n">
-        <x:v>36172</x:v>
+        <x:v>38801</x:v>
       </x:c>
       <x:c r="SA24" s="3" t="n">
-        <x:v>43820</x:v>
+        <x:v>44943</x:v>
       </x:c>
       <x:c r="SB24" s="3" t="n">
-        <x:v>40584</x:v>
+        <x:v>39779</x:v>
       </x:c>
       <x:c r="SC24" s="3" t="n">
-        <x:v>44525</x:v>
+        <x:v>44329</x:v>
       </x:c>
       <x:c r="SD24" s="3" t="n">
-        <x:v>48623</x:v>
+        <x:v>45068</x:v>
       </x:c>
       <x:c r="SE24" s="3" t="n">
-        <x:v>48966</x:v>
+        <x:v>49810</x:v>
       </x:c>
       <x:c r="SF24" s="3" t="n">
-        <x:v>47047</x:v>
+        <x:v>50023</x:v>
       </x:c>
       <x:c r="SG24" s="3" t="n">
-        <x:v>61614</x:v>
+        <x:v>61918</x:v>
       </x:c>
       <x:c r="SH24" s="3" t="n">
-        <x:v>70542</x:v>
+        <x:v>73109</x:v>
       </x:c>
       <x:c r="SI24" s="3" t="n">
-        <x:v>79055</x:v>
+        <x:v>80221</x:v>
       </x:c>
       <x:c r="SJ24" s="3" t="n">
-        <x:v>105198</x:v>
+        <x:v>105673</x:v>
       </x:c>
       <x:c r="SK24" s="3" t="n">
-        <x:v>107457</x:v>
+        <x:v>106986</x:v>
       </x:c>
       <x:c r="SL24" s="3" t="n">
-        <x:v>130300</x:v>
+        <x:v>130322</x:v>
       </x:c>
       <x:c r="SM24" s="3" t="n">
         <x:v>114516</x:v>
@@ -35672,13 +35870,22 @@
       <x:c r="SN24" s="3" t="n">
         <x:v>102855</x:v>
       </x:c>
+      <x:c r="SO24" s="3" t="n">
+        <x:v>164019</x:v>
+      </x:c>
+      <x:c r="SP24" s="3" t="n">
+        <x:v>115714</x:v>
+      </x:c>
+      <x:c r="SQ24" s="3" t="n">
+        <x:v>116423</x:v>
+      </x:c>
     </x:row>
-    <x:row r="25" spans="1:508">
+    <x:row r="25" spans="1:511">
       <x:c r="A25" s="2" t="s">
-        <x:v>530</x:v>
+        <x:v>533</x:v>
       </x:c>
       <x:c r="B25" s="2" t="s">
-        <x:v>508</x:v>
+        <x:v>511</x:v>
       </x:c>
       <x:c r="C25" s="3" t="n">
         <x:v>664</x:v>
@@ -36917,7 +37124,7 @@
         <x:v>540</x:v>
       </x:c>
       <x:c r="OY25" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="OZ25" s="3" t="n">
         <x:v>942</x:v>
@@ -37031,7 +37238,7 @@
         <x:v>1425</x:v>
       </x:c>
       <x:c r="QK25" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="QL25" s="3" t="n">
         <x:v>351</x:v>
@@ -37169,7 +37376,7 @@
         <x:v>349</x:v>
       </x:c>
       <x:c r="SE25" s="3" t="n">
-        <x:v>86</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="SF25" s="3" t="n">
         <x:v>1902</x:v>
@@ -37184,27 +37391,36 @@
         <x:v>1519</x:v>
       </x:c>
       <x:c r="SJ25" s="3" t="n">
-        <x:v>259</x:v>
+        <x:v>393</x:v>
       </x:c>
       <x:c r="SK25" s="3" t="n">
-        <x:v>15</x:v>
+        <x:v>415</x:v>
       </x:c>
       <x:c r="SL25" s="3" t="n">
-        <x:v>136</x:v>
+        <x:v>4772</x:v>
       </x:c>
       <x:c r="SM25" s="3" t="n">
         <x:v>7</x:v>
       </x:c>
       <x:c r="SN25" s="3" t="n">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="SO25" s="3" t="n">
+        <x:v>347</x:v>
+      </x:c>
+      <x:c r="SP25" s="3" t="n">
         <x:v>0</x:v>
       </x:c>
+      <x:c r="SQ25" s="3" t="n">
+        <x:v>1733</x:v>
+      </x:c>
     </x:row>
-    <x:row r="26" spans="1:508">
+    <x:row r="26" spans="1:511">
       <x:c r="A26" s="2" t="s">
-        <x:v>531</x:v>
+        <x:v>534</x:v>
       </x:c>
       <x:c r="B26" s="2" t="s">
-        <x:v>508</x:v>
+        <x:v>511</x:v>
       </x:c>
       <x:c r="C26" s="3" t="n">
         <x:v>398</x:v>
@@ -38443,7 +38659,7 @@
         <x:v>540</x:v>
       </x:c>
       <x:c r="OY26" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="OZ26" s="3" t="n">
         <x:v>600</x:v>
@@ -38557,7 +38773,7 @@
         <x:v>1425</x:v>
       </x:c>
       <x:c r="QK26" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="QL26" s="3" t="n">
         <x:v>8</x:v>
@@ -38695,7 +38911,7 @@
         <x:v>349</x:v>
       </x:c>
       <x:c r="SE26" s="3" t="n">
-        <x:v>86</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="SF26" s="3" t="n">
         <x:v>362</x:v>
@@ -38710,27 +38926,36 @@
         <x:v>221</x:v>
       </x:c>
       <x:c r="SJ26" s="3" t="n">
-        <x:v>259</x:v>
+        <x:v>393</x:v>
       </x:c>
       <x:c r="SK26" s="3" t="n">
-        <x:v>15</x:v>
+        <x:v>415</x:v>
       </x:c>
       <x:c r="SL26" s="3" t="n">
-        <x:v>136</x:v>
+        <x:v>1830</x:v>
       </x:c>
       <x:c r="SM26" s="3" t="n">
         <x:v>7</x:v>
       </x:c>
       <x:c r="SN26" s="3" t="n">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="SO26" s="3" t="n">
         <x:v>0</x:v>
       </x:c>
+      <x:c r="SP26" s="3" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="SQ26" s="3" t="n">
+        <x:v>0</x:v>
+      </x:c>
     </x:row>
-    <x:row r="27" spans="1:508">
+    <x:row r="27" spans="1:511">
       <x:c r="A27" s="2" t="s">
-        <x:v>532</x:v>
+        <x:v>535</x:v>
       </x:c>
       <x:c r="B27" s="2" t="s">
-        <x:v>508</x:v>
+        <x:v>511</x:v>
       </x:c>
       <x:c r="C27" s="3" t="n">
         <x:v>266</x:v>
@@ -38772,7 +38997,7 @@
         <x:v>63</x:v>
       </x:c>
       <x:c r="P27" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="Q27" s="3" t="n">
         <x:v>228</x:v>
@@ -38787,13 +39012,13 @@
         <x:v>47</x:v>
       </x:c>
       <x:c r="U27" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="V27" s="3" t="n">
         <x:v>56</x:v>
       </x:c>
       <x:c r="W27" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="X27" s="3" t="n">
         <x:v>39</x:v>
@@ -38802,13 +39027,13 @@
         <x:v>186</x:v>
       </x:c>
       <x:c r="Z27" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="AA27" s="3" t="n">
         <x:v>57</x:v>
       </x:c>
       <x:c r="AB27" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="AC27" s="3" t="n">
         <x:v>81</x:v>
@@ -38829,7 +39054,7 @@
         <x:v>30</x:v>
       </x:c>
       <x:c r="AI27" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="AJ27" s="3" t="n">
         <x:v>162</x:v>
@@ -38862,7 +39087,7 @@
         <x:v>208</x:v>
       </x:c>
       <x:c r="AT27" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="AU27" s="3" t="n">
         <x:v>37</x:v>
@@ -38880,7 +39105,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="AZ27" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="BA27" s="3" t="n">
         <x:v>174</x:v>
@@ -38892,13 +39117,13 @@
         <x:v>116</x:v>
       </x:c>
       <x:c r="BD27" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="BE27" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="BF27" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="BG27" s="3" t="n">
         <x:v>6</x:v>
@@ -38934,7 +39159,7 @@
         <x:v>106</x:v>
       </x:c>
       <x:c r="BR27" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="BS27" s="3" t="n">
         <x:v>121</x:v>
@@ -38943,7 +39168,7 @@
         <x:v>178</x:v>
       </x:c>
       <x:c r="BU27" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="BV27" s="3" t="n">
         <x:v>136</x:v>
@@ -38958,13 +39183,13 @@
         <x:v>370</x:v>
       </x:c>
       <x:c r="BZ27" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="CA27" s="3" t="n">
         <x:v>84</x:v>
       </x:c>
       <x:c r="CB27" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="CC27" s="3" t="n">
         <x:v>180</x:v>
@@ -38973,7 +39198,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="CE27" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="CF27" s="3" t="n">
         <x:v>17</x:v>
@@ -39006,7 +39231,7 @@
         <x:v>128</x:v>
       </x:c>
       <x:c r="CP27" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="CQ27" s="3" t="n">
         <x:v>92</x:v>
@@ -39015,7 +39240,7 @@
         <x:v>29</x:v>
       </x:c>
       <x:c r="CS27" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="CT27" s="3" t="n">
         <x:v>235</x:v>
@@ -39081,7 +39306,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="DO27" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="DP27" s="3" t="n">
         <x:v>80</x:v>
@@ -39204,7 +39429,7 @@
         <x:v>404</x:v>
       </x:c>
       <x:c r="FD27" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="FE27" s="3" t="n">
         <x:v>169</x:v>
@@ -39219,19 +39444,19 @@
         <x:v>559</x:v>
       </x:c>
       <x:c r="FI27" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="FJ27" s="3" t="n">
         <x:v>121</x:v>
       </x:c>
       <x:c r="FK27" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="FL27" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="FM27" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="FN27" s="3" t="n">
         <x:v>108</x:v>
@@ -39303,13 +39528,13 @@
         <x:v>139</x:v>
       </x:c>
       <x:c r="GK27" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="GL27" s="3" t="n">
         <x:v>103</x:v>
       </x:c>
       <x:c r="GM27" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="GN27" s="3" t="n">
         <x:v>394</x:v>
@@ -39318,7 +39543,7 @@
         <x:v>182</x:v>
       </x:c>
       <x:c r="GP27" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="GQ27" s="3" t="n">
         <x:v>675</x:v>
@@ -39366,7 +39591,7 @@
         <x:v>409</x:v>
       </x:c>
       <x:c r="HF27" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="HG27" s="3" t="n">
         <x:v>437</x:v>
@@ -39384,13 +39609,13 @@
         <x:v>116</x:v>
       </x:c>
       <x:c r="HL27" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="HM27" s="3" t="n">
         <x:v>938</x:v>
       </x:c>
       <x:c r="HN27" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="HO27" s="3" t="n">
         <x:v>615</x:v>
@@ -39438,10 +39663,10 @@
         <x:v>117</x:v>
       </x:c>
       <x:c r="ID27" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="IE27" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="IF27" s="3" t="n">
         <x:v>188</x:v>
@@ -39453,10 +39678,10 @@
         <x:v>124</x:v>
       </x:c>
       <x:c r="II27" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="IJ27" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="IK27" s="3" t="n">
         <x:v>47</x:v>
@@ -39468,7 +39693,7 @@
         <x:v>18</x:v>
       </x:c>
       <x:c r="IN27" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="IO27" s="3" t="n">
         <x:v>83</x:v>
@@ -39492,7 +39717,7 @@
         <x:v>163</x:v>
       </x:c>
       <x:c r="IV27" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="IW27" s="3" t="n">
         <x:v>84</x:v>
@@ -39510,7 +39735,7 @@
         <x:v>2039</x:v>
       </x:c>
       <x:c r="JB27" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="JC27" s="3" t="n">
         <x:v>134</x:v>
@@ -39519,7 +39744,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="JE27" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="JF27" s="3" t="n">
         <x:v>50</x:v>
@@ -39543,7 +39768,7 @@
         <x:v>753</x:v>
       </x:c>
       <x:c r="JM27" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="JN27" s="3" t="n">
         <x:v>169</x:v>
@@ -39555,7 +39780,7 @@
         <x:v>320</x:v>
       </x:c>
       <x:c r="JQ27" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="JR27" s="3" t="n">
         <x:v>276</x:v>
@@ -39585,7 +39810,7 @@
         <x:v>591</x:v>
       </x:c>
       <x:c r="KA27" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="KB27" s="3" t="n">
         <x:v>335</x:v>
@@ -39609,19 +39834,19 @@
         <x:v>674</x:v>
       </x:c>
       <x:c r="KI27" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="KJ27" s="3" t="n">
         <x:v>2</x:v>
       </x:c>
       <x:c r="KK27" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="KL27" s="3" t="n">
         <x:v>115</x:v>
       </x:c>
       <x:c r="KM27" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="KN27" s="3" t="n">
         <x:v>252</x:v>
@@ -39636,13 +39861,13 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="KR27" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="KS27" s="3" t="n">
         <x:v>15</x:v>
       </x:c>
       <x:c r="KT27" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="KU27" s="3" t="n">
         <x:v>200</x:v>
@@ -39654,7 +39879,7 @@
         <x:v>777</x:v>
       </x:c>
       <x:c r="KX27" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="KY27" s="3" t="n">
         <x:v>276</x:v>
@@ -39672,7 +39897,7 @@
         <x:v>152</x:v>
       </x:c>
       <x:c r="LD27" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="LE27" s="3" t="n">
         <x:v>115</x:v>
@@ -39681,7 +39906,7 @@
         <x:v>582</x:v>
       </x:c>
       <x:c r="LG27" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="LH27" s="3" t="n">
         <x:v>243</x:v>
@@ -39705,10 +39930,10 @@
         <x:v>524</x:v>
       </x:c>
       <x:c r="LO27" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="LP27" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="LQ27" s="3" t="n">
         <x:v>558</x:v>
@@ -39723,10 +39948,10 @@
         <x:v>425</x:v>
       </x:c>
       <x:c r="LU27" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="LV27" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="LW27" s="3" t="n">
         <x:v>675</x:v>
@@ -39741,7 +39966,7 @@
         <x:v>128</x:v>
       </x:c>
       <x:c r="MA27" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="MB27" s="3" t="n">
         <x:v>522</x:v>
@@ -39789,7 +40014,7 @@
         <x:v>896</x:v>
       </x:c>
       <x:c r="MQ27" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="MR27" s="3" t="n">
         <x:v>1198</x:v>
@@ -39804,7 +40029,7 @@
         <x:v>340</x:v>
       </x:c>
       <x:c r="MV27" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="MW27" s="3" t="n">
         <x:v>609</x:v>
@@ -39825,13 +40050,13 @@
         <x:v>372</x:v>
       </x:c>
       <x:c r="NC27" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="ND27" s="3" t="n">
         <x:v>603</x:v>
       </x:c>
       <x:c r="NE27" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="NF27" s="3" t="n">
         <x:v>305</x:v>
@@ -39840,10 +40065,10 @@
         <x:v>346</x:v>
       </x:c>
       <x:c r="NH27" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="NI27" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="NJ27" s="3" t="n">
         <x:v>384</x:v>
@@ -39855,7 +40080,7 @@
         <x:v>774</x:v>
       </x:c>
       <x:c r="NM27" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="NN27" s="3" t="n">
         <x:v>226</x:v>
@@ -39864,28 +40089,28 @@
         <x:v>574</x:v>
       </x:c>
       <x:c r="NP27" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="NQ27" s="3" t="n">
         <x:v>358</x:v>
       </x:c>
       <x:c r="NR27" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="NS27" s="3" t="n">
         <x:v>365</x:v>
       </x:c>
       <x:c r="NT27" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="NU27" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="NV27" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="NW27" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="NX27" s="3" t="n">
         <x:v>143</x:v>
@@ -39906,31 +40131,31 @@
         <x:v>578</x:v>
       </x:c>
       <x:c r="OD27" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="OE27" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="OF27" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="OG27" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="OH27" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="OI27" s="3" t="n">
         <x:v>350</x:v>
       </x:c>
       <x:c r="OJ27" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="OK27" s="3" t="n">
         <x:v>305</x:v>
       </x:c>
       <x:c r="OL27" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="OM27" s="3" t="n">
         <x:v>501</x:v>
@@ -39945,13 +40170,13 @@
         <x:v>302</x:v>
       </x:c>
       <x:c r="OQ27" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="OR27" s="3" t="n">
         <x:v>350</x:v>
       </x:c>
       <x:c r="OS27" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="OT27" s="3" t="n">
         <x:v>545</x:v>
@@ -39963,28 +40188,28 @@
         <x:v>990</x:v>
       </x:c>
       <x:c r="OW27" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="OX27" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="OY27" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="OZ27" s="3" t="n">
         <x:v>342</x:v>
       </x:c>
       <x:c r="PA27" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="PB27" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="PC27" s="3" t="n">
         <x:v>330</x:v>
       </x:c>
       <x:c r="PD27" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="PE27" s="3" t="n">
         <x:v>243</x:v>
@@ -39999,7 +40224,7 @@
         <x:v>325</x:v>
       </x:c>
       <x:c r="PI27" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="PJ27" s="3" t="n">
         <x:v>705</x:v>
@@ -40008,7 +40233,7 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="PL27" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="PM27" s="3" t="n">
         <x:v>582</x:v>
@@ -40017,10 +40242,10 @@
         <x:v>182</x:v>
       </x:c>
       <x:c r="PO27" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="PP27" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="PQ27" s="3" t="n">
         <x:v>22</x:v>
@@ -40029,19 +40254,19 @@
         <x:v>733</x:v>
       </x:c>
       <x:c r="PS27" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="PT27" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="PU27" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="PV27" s="3" t="n">
         <x:v>275</x:v>
       </x:c>
       <x:c r="PW27" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="PX27" s="3" t="n">
         <x:v>652</x:v>
@@ -40053,7 +40278,7 @@
         <x:v>362</x:v>
       </x:c>
       <x:c r="QA27" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="QB27" s="3" t="n">
         <x:v>3102</x:v>
@@ -40074,25 +40299,25 @@
         <x:v>801</x:v>
       </x:c>
       <x:c r="QH27" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="QI27" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="QJ27" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="QK27" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="QL27" s="3" t="n">
         <x:v>343</x:v>
       </x:c>
       <x:c r="QM27" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="QN27" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="QO27" s="3" t="n">
         <x:v>1054</x:v>
@@ -40104,13 +40329,13 @@
         <x:v>2143</x:v>
       </x:c>
       <x:c r="QR27" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="QS27" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="QT27" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="QU27" s="3" t="n">
         <x:v>1398</x:v>
@@ -40122,19 +40347,19 @@
         <x:v>377</x:v>
       </x:c>
       <x:c r="QX27" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="QY27" s="3" t="n">
         <x:v>1015</x:v>
       </x:c>
       <x:c r="QZ27" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="RA27" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="RB27" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="RC27" s="3" t="n">
         <x:v>0</x:v>
@@ -40242,7 +40467,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="SL27" s="3" t="n">
-        <x:v>0</x:v>
+        <x:v>2942</x:v>
       </x:c>
       <x:c r="SM27" s="3" t="n">
         <x:v>0</x:v>
@@ -40250,139 +40475,148 @@
       <x:c r="SN27" s="3" t="n">
         <x:v>0</x:v>
       </x:c>
+      <x:c r="SO27" s="3" t="n">
+        <x:v>347</x:v>
+      </x:c>
+      <x:c r="SP27" s="3" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="SQ27" s="3" t="n">
+        <x:v>1733</x:v>
+      </x:c>
     </x:row>
-    <x:row r="28" spans="1:508">
+    <x:row r="28" spans="1:511">
       <x:c r="A28" s="2" t="s">
-        <x:v>533</x:v>
+        <x:v>536</x:v>
       </x:c>
       <x:c r="B28" s="2" t="s">
-        <x:v>508</x:v>
+        <x:v>511</x:v>
       </x:c>
       <x:c r="C28" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="D28" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="E28" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="F28" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="G28" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="H28" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="I28" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="J28" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="K28" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="L28" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="M28" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="N28" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="O28" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="P28" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="Q28" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="R28" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="S28" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="T28" s="3" t="n">
         <x:v>698</x:v>
       </x:c>
       <x:c r="U28" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="V28" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="W28" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="X28" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="Y28" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="Z28" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="AA28" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="AB28" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="AC28" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="AD28" s="3" t="n">
         <x:v>639</x:v>
       </x:c>
       <x:c r="AE28" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="AF28" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="AG28" s="3" t="n">
         <x:v>219</x:v>
       </x:c>
       <x:c r="AH28" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="AI28" s="3" t="n">
         <x:v>550</x:v>
       </x:c>
       <x:c r="AJ28" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="AK28" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="AL28" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="AM28" s="3" t="n">
         <x:v>204</x:v>
       </x:c>
       <x:c r="AN28" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="AO28" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="AP28" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="AQ28" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="AR28" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="AS28" s="3" t="n">
         <x:v>620</x:v>
@@ -40391,34 +40625,34 @@
         <x:v>406</x:v>
       </x:c>
       <x:c r="AU28" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="AV28" s="3" t="n">
         <x:v>425</x:v>
       </x:c>
       <x:c r="AW28" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="AX28" s="3" t="n">
         <x:v>447</x:v>
       </x:c>
       <x:c r="AY28" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="AZ28" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="BA28" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="BB28" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="BC28" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="BD28" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="BE28" s="3" t="n">
         <x:v>195</x:v>
@@ -40427,325 +40661,325 @@
         <x:v>302</x:v>
       </x:c>
       <x:c r="BG28" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="BH28" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="BI28" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="BJ28" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="BK28" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="BL28" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="BM28" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="BN28" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="BO28" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="BP28" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="BQ28" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="BR28" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="BS28" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="BT28" s="3" t="n">
         <x:v>237</x:v>
       </x:c>
       <x:c r="BU28" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="BV28" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="BW28" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="BX28" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="BY28" s="3" t="n">
         <x:v>57</x:v>
       </x:c>
       <x:c r="BZ28" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="CA28" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="CB28" s="3" t="n">
         <x:v>251</x:v>
       </x:c>
       <x:c r="CC28" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="CD28" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="CE28" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="CF28" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="CG28" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="CH28" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="CI28" s="3" t="n">
         <x:v>96</x:v>
       </x:c>
       <x:c r="CJ28" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="CK28" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="CL28" s="3" t="n">
         <x:v>55</x:v>
       </x:c>
       <x:c r="CM28" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="CN28" s="3" t="n">
         <x:v>64</x:v>
       </x:c>
       <x:c r="CO28" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="CP28" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="CQ28" s="3" t="n">
         <x:v>80</x:v>
       </x:c>
       <x:c r="CR28" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="CS28" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="CT28" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="CU28" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="CV28" s="3" t="n">
         <x:v>85</x:v>
       </x:c>
       <x:c r="CW28" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="CX28" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="CY28" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="CZ28" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="DA28" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="DB28" s="3" t="n">
         <x:v>219</x:v>
       </x:c>
       <x:c r="DC28" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="DD28" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="DE28" s="3" t="n">
         <x:v>164</x:v>
       </x:c>
       <x:c r="DF28" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="DG28" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="DH28" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="DI28" s="3" t="n">
         <x:v>475</x:v>
       </x:c>
       <x:c r="DJ28" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="DK28" s="3" t="n">
         <x:v>267</x:v>
       </x:c>
       <x:c r="DL28" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="DM28" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="DN28" s="3" t="n">
         <x:v>141</x:v>
       </x:c>
       <x:c r="DO28" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="DP28" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="DQ28" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="DR28" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="DS28" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="DT28" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="DU28" s="3" t="n">
         <x:v>316</x:v>
       </x:c>
       <x:c r="DV28" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="DW28" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="DX28" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="DY28" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="DZ28" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="EA28" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="EB28" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="EC28" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="ED28" s="3" t="n">
         <x:v>79</x:v>
       </x:c>
       <x:c r="EE28" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="EF28" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="EG28" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="EH28" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="EI28" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="EJ28" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="EK28" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="EL28" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="EM28" s="3" t="n">
         <x:v>266</x:v>
       </x:c>
       <x:c r="EN28" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="EO28" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="EP28" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="EQ28" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="ER28" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="ES28" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="ET28" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="EU28" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="EV28" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="EW28" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="EX28" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="EY28" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="EZ28" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="FA28" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="FB28" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="FC28" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="FD28" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="FE28" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="FF28" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="FG28" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="FH28" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="FI28" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="FJ28" s="3" t="n">
         <x:v>508</x:v>
@@ -40754,73 +40988,73 @@
         <x:v>517</x:v>
       </x:c>
       <x:c r="FL28" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="FM28" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="FN28" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="FO28" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="FP28" s="3" t="n">
         <x:v>632</x:v>
       </x:c>
       <x:c r="FQ28" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="FR28" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="FS28" s="3" t="n">
         <x:v>158</x:v>
       </x:c>
       <x:c r="FT28" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="FU28" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="FV28" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="FW28" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="FX28" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="FY28" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="FZ28" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="GA28" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="GB28" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="GC28" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="GD28" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="GE28" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="GF28" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="GG28" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="GH28" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="GI28" s="3" t="n">
         <x:v>218</x:v>
@@ -40829,838 +41063,838 @@
         <x:v>141</x:v>
       </x:c>
       <x:c r="GK28" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="GL28" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="GM28" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="GN28" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="GO28" s="3" t="n">
         <x:v>308</x:v>
       </x:c>
       <x:c r="GP28" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="GQ28" s="3" t="n">
         <x:v>151</x:v>
       </x:c>
       <x:c r="GR28" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="GS28" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="GT28" s="3" t="n">
         <x:v>13</x:v>
       </x:c>
       <x:c r="GU28" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="GV28" s="3" t="n">
         <x:v>357</x:v>
       </x:c>
       <x:c r="GW28" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="GX28" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="GY28" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="GZ28" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="HA28" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="HB28" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="HC28" s="3" t="n">
         <x:v>545</x:v>
       </x:c>
       <x:c r="HD28" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="HE28" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="HF28" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="HG28" s="3" t="n">
         <x:v>395</x:v>
       </x:c>
       <x:c r="HH28" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="HI28" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="HJ28" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="HK28" s="3" t="n">
         <x:v>374</x:v>
       </x:c>
       <x:c r="HL28" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="HM28" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="HN28" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="HO28" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="HP28" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="HQ28" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="HR28" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="HS28" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="HT28" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="HU28" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="HV28" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="HW28" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="HX28" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="HY28" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="HZ28" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="IA28" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="IB28" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="IC28" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="ID28" s="3" t="n">
         <x:v>2758</x:v>
       </x:c>
       <x:c r="IE28" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="IF28" s="3" t="n">
         <x:v>1813</x:v>
       </x:c>
       <x:c r="IG28" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="IH28" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="II28" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="IJ28" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="IK28" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="IL28" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="IM28" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="IN28" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="IO28" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="IP28" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="IQ28" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="IR28" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="IS28" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="IT28" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="IU28" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="IV28" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="IW28" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="IX28" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="IY28" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="IZ28" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="JA28" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="JB28" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="JC28" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="JD28" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="JE28" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="JF28" s="3" t="n">
         <x:v>3069</x:v>
       </x:c>
       <x:c r="JG28" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="JH28" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="JI28" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="JJ28" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="JK28" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="JL28" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="JM28" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="JN28" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="JO28" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="JP28" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="JQ28" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="JR28" s="3" t="n">
         <x:v>487</x:v>
       </x:c>
       <x:c r="JS28" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="JT28" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="JU28" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="JV28" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="JW28" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="JX28" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="JY28" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="JZ28" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="KA28" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="KB28" s="3" t="n">
         <x:v>1900</x:v>
       </x:c>
       <x:c r="KC28" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="KD28" s="3" t="n">
         <x:v>1308</x:v>
       </x:c>
       <x:c r="KE28" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="KF28" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="KG28" s="3" t="n">
         <x:v>279</x:v>
       </x:c>
       <x:c r="KH28" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="KI28" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="KJ28" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="KK28" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="KL28" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="KM28" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="KN28" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="KO28" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="KP28" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="KQ28" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="KR28" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="KS28" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="KT28" s="3" t="n">
         <x:v>2855</x:v>
       </x:c>
       <x:c r="KU28" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="KV28" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="KW28" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="KX28" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="KY28" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="KZ28" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="LA28" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="LB28" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="LC28" s="3" t="n">
         <x:v>870</x:v>
       </x:c>
       <x:c r="LD28" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="LE28" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="LF28" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="LG28" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="LH28" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="LI28" s="3" t="n">
         <x:v>626</x:v>
       </x:c>
       <x:c r="LJ28" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="LK28" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="LL28" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="LM28" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="LN28" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="LO28" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="LP28" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="LQ28" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="LR28" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="LS28" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="LT28" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="LU28" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="LV28" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="LW28" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="LX28" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="LY28" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="LZ28" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="MA28" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="MB28" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="MC28" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="MD28" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="ME28" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="MF28" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="MG28" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="MH28" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="MI28" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="MJ28" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="MK28" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="ML28" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="MM28" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="MN28" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="MO28" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="MP28" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="MQ28" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="MR28" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="MS28" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="MT28" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="MU28" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="MV28" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="MW28" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="MX28" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="MY28" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="MZ28" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="NA28" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="NB28" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="NC28" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="ND28" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="NE28" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="NF28" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="NG28" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="NH28" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="NI28" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="NJ28" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="NK28" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="NL28" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="NM28" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="NN28" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="NO28" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="NP28" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="NQ28" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="NR28" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="NS28" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="NT28" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="NU28" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="NV28" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="NW28" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="NX28" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="NY28" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="NZ28" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="OA28" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="OB28" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="OC28" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="OD28" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="OE28" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="OF28" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="OG28" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="OH28" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="OI28" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="OJ28" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="OK28" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="OL28" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="OM28" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="ON28" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="OO28" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="OP28" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="OQ28" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="OR28" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="OS28" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="OT28" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="OU28" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="OV28" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="OW28" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="OX28" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="OY28" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="OZ28" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="PA28" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="PB28" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="PC28" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="PD28" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="PE28" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="PF28" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="PG28" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="PH28" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="PI28" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="PJ28" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="PK28" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="PL28" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="PM28" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="PN28" s="3" t="n">
         <x:v>3326</x:v>
       </x:c>
       <x:c r="PO28" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="PP28" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="PQ28" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="PR28" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="PS28" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="PT28" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="PU28" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="PV28" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="PW28" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="PX28" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="PY28" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="PZ28" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="QA28" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="QB28" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="QC28" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="QD28" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="QE28" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="QF28" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="QG28" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="QH28" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="QI28" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="QJ28" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="QK28" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="QL28" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="QM28" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="QN28" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="QO28" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="QP28" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="QQ28" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="QR28" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="QS28" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="QT28" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="QU28" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="QV28" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="QW28" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="QX28" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="QY28" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="QZ28" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="RA28" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="RB28" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="RC28" s="3" t="n">
         <x:v>0</x:v>
@@ -41776,13 +42010,22 @@
       <x:c r="SN28" s="3" t="n">
         <x:v>0</x:v>
       </x:c>
+      <x:c r="SO28" s="3" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="SP28" s="3" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="SQ28" s="3" t="n">
+        <x:v>0</x:v>
+      </x:c>
     </x:row>
-    <x:row r="29" spans="1:508">
+    <x:row r="29" spans="1:511">
       <x:c r="A29" s="2" t="s">
-        <x:v>534</x:v>
+        <x:v>537</x:v>
       </x:c>
       <x:c r="B29" s="2" t="s">
-        <x:v>508</x:v>
+        <x:v>511</x:v>
       </x:c>
       <x:c r="C29" s="3" t="n">
         <x:v>664</x:v>
@@ -43021,7 +43264,7 @@
         <x:v>540</x:v>
       </x:c>
       <x:c r="OY29" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="OZ29" s="3" t="n">
         <x:v>942</x:v>
@@ -43135,7 +43378,7 @@
         <x:v>1425</x:v>
       </x:c>
       <x:c r="QK29" s="4" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="QL29" s="3" t="n">
         <x:v>351</x:v>
@@ -43273,7 +43516,7 @@
         <x:v>349</x:v>
       </x:c>
       <x:c r="SE29" s="3" t="n">
-        <x:v>86</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="SF29" s="3" t="n">
         <x:v>1902</x:v>
@@ -43288,176 +43531,185 @@
         <x:v>1519</x:v>
       </x:c>
       <x:c r="SJ29" s="3" t="n">
-        <x:v>259</x:v>
+        <x:v>393</x:v>
       </x:c>
       <x:c r="SK29" s="3" t="n">
-        <x:v>15</x:v>
+        <x:v>415</x:v>
       </x:c>
       <x:c r="SL29" s="3" t="n">
-        <x:v>136</x:v>
+        <x:v>4772</x:v>
       </x:c>
       <x:c r="SM29" s="3" t="n">
         <x:v>7</x:v>
       </x:c>
       <x:c r="SN29" s="3" t="n">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="SO29" s="3" t="n">
+        <x:v>347</x:v>
+      </x:c>
+      <x:c r="SP29" s="3" t="n">
         <x:v>0</x:v>
       </x:c>
+      <x:c r="SQ29" s="3" t="n">
+        <x:v>1733</x:v>
+      </x:c>
     </x:row>
-    <x:row r="31" spans="1:508">
+    <x:row r="31" spans="1:511">
       <x:c r="A31" s="5" t="s">
-        <x:v>535</x:v>
+        <x:v>538</x:v>
       </x:c>
     </x:row>
-    <x:row r="32" spans="1:508">
+    <x:row r="32" spans="1:511">
       <x:c r="A32" s="5" t="s">
-        <x:v>536</x:v>
+        <x:v>539</x:v>
       </x:c>
     </x:row>
-    <x:row r="33" spans="1:508">
+    <x:row r="33" spans="1:511">
       <x:c r="A33" s="5" t="s">
-        <x:v>537</x:v>
+        <x:v>540</x:v>
       </x:c>
     </x:row>
-    <x:row r="35" spans="1:508">
+    <x:row r="35" spans="1:511">
       <x:c r="A35" s="0" t="s">
-        <x:v>538</x:v>
+        <x:v>541</x:v>
       </x:c>
     </x:row>
-    <x:row r="36" spans="1:508">
+    <x:row r="36" spans="1:511">
       <x:c r="A36" s="0" t="s">
-        <x:v>539</x:v>
+        <x:v>542</x:v>
       </x:c>
     </x:row>
-    <x:row r="37" spans="1:508">
+    <x:row r="37" spans="1:511">
       <x:c r="A37" s="0" t="s">
-        <x:v>540</x:v>
+        <x:v>543</x:v>
       </x:c>
     </x:row>
-    <x:row r="39" spans="1:508">
+    <x:row r="39" spans="1:511">
       <x:c r="A39" s="0" t="s">
-        <x:v>541</x:v>
+        <x:v>544</x:v>
       </x:c>
     </x:row>
-    <x:row r="40" spans="1:508">
+    <x:row r="40" spans="1:511">
       <x:c r="A40" s="0" t="s">
+        <x:v>545</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="42" spans="1:511">
+      <x:c r="A42" s="0" t="s">
+        <x:v>546</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="43" spans="1:511">
+      <x:c r="A43" s="0" t="s">
         <x:v>542</x:v>
       </x:c>
     </x:row>
-    <x:row r="42" spans="1:508">
-      <x:c r="A42" s="0" t="s">
-        <x:v>543</x:v>
+    <x:row r="44" spans="1:511">
+      <x:c r="A44" s="0" t="s">
+        <x:v>547</x:v>
       </x:c>
     </x:row>
-    <x:row r="43" spans="1:508">
-      <x:c r="A43" s="0" t="s">
-        <x:v>539</x:v>
+    <x:row r="45" spans="1:511">
+      <x:c r="A45" s="0" t="s">
+        <x:v>548</x:v>
       </x:c>
     </x:row>
-    <x:row r="44" spans="1:508">
-      <x:c r="A44" s="0" t="s">
-        <x:v>544</x:v>
+    <x:row r="46" spans="1:511">
+      <x:c r="A46" s="0" t="s">
+        <x:v>549</x:v>
       </x:c>
     </x:row>
-    <x:row r="45" spans="1:508">
-      <x:c r="A45" s="0" t="s">
-        <x:v>545</x:v>
+    <x:row r="48" spans="1:511">
+      <x:c r="A48" s="0" t="s">
+        <x:v>550</x:v>
       </x:c>
     </x:row>
-    <x:row r="46" spans="1:508">
-      <x:c r="A46" s="0" t="s">
-        <x:v>546</x:v>
+    <x:row r="49" spans="1:511">
+      <x:c r="A49" s="0" t="s">
+        <x:v>551</x:v>
       </x:c>
     </x:row>
-    <x:row r="48" spans="1:508">
-      <x:c r="A48" s="0" t="s">
-        <x:v>547</x:v>
+    <x:row r="50" spans="1:511">
+      <x:c r="A50" s="0" t="s">
+        <x:v>552</x:v>
       </x:c>
     </x:row>
-    <x:row r="49" spans="1:508">
-      <x:c r="A49" s="0" t="s">
-        <x:v>548</x:v>
+    <x:row r="54" spans="1:511">
+      <x:c r="A54" s="0" t="s">
+        <x:v>553</x:v>
       </x:c>
     </x:row>
-    <x:row r="50" spans="1:508">
-      <x:c r="A50" s="0" t="s">
-        <x:v>549</x:v>
+    <x:row r="56" spans="1:511">
+      <x:c r="A56" s="0" t="s">
+        <x:v>554</x:v>
       </x:c>
     </x:row>
-    <x:row r="54" spans="1:508">
-      <x:c r="A54" s="0" t="s">
-        <x:v>550</x:v>
+    <x:row r="57" spans="1:511">
+      <x:c r="A57" s="0" t="s">
+        <x:v>542</x:v>
       </x:c>
     </x:row>
-    <x:row r="56" spans="1:508">
-      <x:c r="A56" s="0" t="s">
-        <x:v>551</x:v>
+    <x:row r="58" spans="1:511">
+      <x:c r="A58" s="0" t="s">
+        <x:v>555</x:v>
       </x:c>
     </x:row>
-    <x:row r="57" spans="1:508">
-      <x:c r="A57" s="0" t="s">
-        <x:v>539</x:v>
+    <x:row r="59" spans="1:511">
+      <x:c r="A59" s="0" t="s">
+        <x:v>556</x:v>
       </x:c>
     </x:row>
-    <x:row r="58" spans="1:508">
-      <x:c r="A58" s="0" t="s">
-        <x:v>552</x:v>
+    <x:row r="60" spans="1:511">
+      <x:c r="A60" s="0" t="s">
+        <x:v>542</x:v>
       </x:c>
     </x:row>
-    <x:row r="59" spans="1:508">
-      <x:c r="A59" s="0" t="s">
-        <x:v>553</x:v>
+    <x:row r="61" spans="1:511">
+      <x:c r="A61" s="0" t="s">
+        <x:v>557</x:v>
       </x:c>
     </x:row>
-    <x:row r="60" spans="1:508">
-      <x:c r="A60" s="0" t="s">
-        <x:v>539</x:v>
+    <x:row r="63" spans="1:511">
+      <x:c r="A63" s="0" t="s">
+        <x:v>558</x:v>
       </x:c>
     </x:row>
-    <x:row r="61" spans="1:508">
-      <x:c r="A61" s="0" t="s">
-        <x:v>554</x:v>
+    <x:row r="64" spans="1:511">
+      <x:c r="A64" s="0" t="s">
+        <x:v>511</x:v>
       </x:c>
     </x:row>
-    <x:row r="63" spans="1:508">
-      <x:c r="A63" s="0" t="s">
-        <x:v>555</x:v>
+    <x:row r="65" spans="1:511">
+      <x:c r="A65" s="0" t="s">
+        <x:v>559</x:v>
       </x:c>
     </x:row>
-    <x:row r="64" spans="1:508">
-      <x:c r="A64" s="0" t="s">
-        <x:v>508</x:v>
+    <x:row r="72" spans="1:511">
+      <x:c r="A72" s="0" t="s">
+        <x:v>560</x:v>
       </x:c>
     </x:row>
-    <x:row r="65" spans="1:508">
-      <x:c r="A65" s="0" t="s">
-        <x:v>556</x:v>
+    <x:row r="73" spans="1:511">
+      <x:c r="A73" s="0" t="s">
+        <x:v>561</x:v>
       </x:c>
     </x:row>
-    <x:row r="72" spans="1:508">
-      <x:c r="A72" s="0" t="s">
-        <x:v>557</x:v>
+    <x:row r="75" spans="1:511">
+      <x:c r="A75" s="0" t="s">
+        <x:v>562</x:v>
       </x:c>
     </x:row>
-    <x:row r="73" spans="1:508">
-      <x:c r="A73" s="0" t="s">
-        <x:v>558</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="75" spans="1:508">
-      <x:c r="A75" s="0" t="s">
-        <x:v>559</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="76" spans="1:508">
+    <x:row r="76" spans="1:511">
       <x:c r="A76" s="0" t="s">
-        <x:v>560</x:v>
+        <x:v>563</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
   <x:mergeCells count="3">
-    <x:mergeCell ref="A31:SN31"/>
-    <x:mergeCell ref="A32:SN32"/>
-    <x:mergeCell ref="A33:SN33"/>
+    <x:mergeCell ref="A31:SQ31"/>
+    <x:mergeCell ref="A32:SQ32"/>
+    <x:mergeCell ref="A33:SQ33"/>
   </x:mergeCells>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
